--- a/data/trans_orig/P5708-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>288710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>266611</v>
+        <v>267030</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>310238</v>
+        <v>309940</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6093800707912463</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5627355087892704</v>
+        <v>0.5636207712218972</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.654819289054606</v>
+        <v>0.6541914943410331</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -765,19 +765,19 @@
         <v>185763</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>168859</v>
+        <v>168450</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>203544</v>
+        <v>203913</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6057212285086779</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5506033250767115</v>
+        <v>0.5492694633790137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6637010079228202</v>
+        <v>0.6649036400136522</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>461</v>
@@ -786,19 +786,19 @@
         <v>474473</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>445264</v>
+        <v>446259</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>504170</v>
+        <v>501781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6079423292969007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5705174805036376</v>
+        <v>0.5717918119284587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6459931719420884</v>
+        <v>0.6429316445042736</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>126598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108539</v>
+        <v>107862</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147650</v>
+        <v>146896</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2672107235570251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2290945424633291</v>
+        <v>0.2276640440189756</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3116442928344297</v>
+        <v>0.3100535981307014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -836,19 +836,19 @@
         <v>75974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61985</v>
+        <v>61693</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90994</v>
+        <v>91506</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.247731168899299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2021169022961419</v>
+        <v>0.20116264111058</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2967072877610884</v>
+        <v>0.2983749581732206</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>197</v>
@@ -857,19 +857,19 @@
         <v>202572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177278</v>
+        <v>179372</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>226448</v>
+        <v>227688</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2595562356453115</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2271468911042705</v>
+        <v>0.2298292480814347</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2901477878749137</v>
+        <v>0.2917363834551146</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>44383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32381</v>
+        <v>33189</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59145</v>
+        <v>58482</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09368018561517354</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06834709931547739</v>
+        <v>0.07005284288119314</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1248371046042432</v>
+        <v>0.1234375127571671</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -907,19 +907,19 @@
         <v>31311</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22837</v>
+        <v>22390</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44175</v>
+        <v>42622</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1020964227436093</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07446527288344337</v>
+        <v>0.07300859023512137</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1440416174750729</v>
+        <v>0.1389773425569618</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -928,19 +928,19 @@
         <v>75694</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62048</v>
+        <v>58661</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>94579</v>
+        <v>92879</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09698734465929343</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07950245520678065</v>
+        <v>0.07516194185993749</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1211846409143888</v>
+        <v>0.1190055190480818</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>13275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6642</v>
+        <v>6105</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23203</v>
+        <v>22475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02802039124132956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01401864435030598</v>
+        <v>0.01288591635819335</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04897507828265327</v>
+        <v>0.04743725334925175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -978,19 +978,19 @@
         <v>12401</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6547</v>
+        <v>6607</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21534</v>
+        <v>22560</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04043762745940873</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02134921753278866</v>
+        <v>0.02154491415500094</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07021678129140264</v>
+        <v>0.07356339728241265</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -999,19 +999,19 @@
         <v>25677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15687</v>
+        <v>17038</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37603</v>
+        <v>38235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03289974224284135</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0200994346230015</v>
+        <v>0.02183022848904975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04818100437140417</v>
+        <v>0.04899026187843039</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6074</v>
+        <v>4028</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001708628795225391</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01282079856504338</v>
+        <v>0.008502674555912602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6212</v>
+        <v>6185</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004013552389005053</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02025479269292477</v>
+        <v>0.02016858118576121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7680</v>
+        <v>8333</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002614348155652978</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009840943459190406</v>
+        <v>0.01067746694541206</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>222697</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>204159</v>
+        <v>202292</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240031</v>
+        <v>239843</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6094888720580669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5587525067133053</v>
+        <v>0.553641075442911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6569269192382331</v>
+        <v>0.6564144217527593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -1195,19 +1195,19 @@
         <v>236677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>216642</v>
+        <v>218367</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>253228</v>
+        <v>253875</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6364601693954826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5825822427961215</v>
+        <v>0.5872204735137954</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6809664588003234</v>
+        <v>0.6827061274185177</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>440</v>
@@ -1216,19 +1216,19 @@
         <v>459375</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>431304</v>
+        <v>431835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>484687</v>
+        <v>485048</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6230930655614825</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5850174444895867</v>
+        <v>0.5857383014268509</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6574263129814931</v>
+        <v>0.6579167483120077</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>87783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72837</v>
+        <v>73314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>105624</v>
+        <v>107174</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.240247673945603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1993429862379028</v>
+        <v>0.2006495554608538</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2890767431651826</v>
+        <v>0.2933181337264641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -1266,19 +1266,19 @@
         <v>82664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>67953</v>
+        <v>68504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>100634</v>
+        <v>99771</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2222960562828238</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.182737001487062</v>
+        <v>0.1842165379220854</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2706207963728101</v>
+        <v>0.2682976527691243</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>170</v>
@@ -1287,19 +1287,19 @@
         <v>170447</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>149123</v>
+        <v>147718</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>194517</v>
+        <v>193073</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2311929637724667</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.202269017025551</v>
+        <v>0.200363718789191</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.263842177641571</v>
+        <v>0.2618833858679651</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>41371</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30344</v>
+        <v>31143</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53773</v>
+        <v>54100</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1132260286195564</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08304801120962785</v>
+        <v>0.08523465497725131</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1471690807838173</v>
+        <v>0.1480645213363856</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1337,19 +1337,19 @@
         <v>42021</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30608</v>
+        <v>31264</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55575</v>
+        <v>55463</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1130011618909439</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08230956672607671</v>
+        <v>0.08407247785546948</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1494500401648822</v>
+        <v>0.1491489885196116</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -1358,19 +1358,19 @@
         <v>83392</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67567</v>
+        <v>67448</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101297</v>
+        <v>103494</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1131126069160969</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09164684721504519</v>
+        <v>0.09148634402485517</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1373991689680944</v>
+        <v>0.1403781697875569</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>12569</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6202</v>
+        <v>6631</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22213</v>
+        <v>22905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03439942393164892</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01697517954743884</v>
+        <v>0.01814869225114037</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06079452513450641</v>
+        <v>0.06268646588915221</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1408,19 +1408,19 @@
         <v>6873</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3009</v>
+        <v>2202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14754</v>
+        <v>13786</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01848273081532667</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008092036606191977</v>
+        <v>0.005920465536132225</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03967499544998602</v>
+        <v>0.03707140387682221</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1429,19 +1429,19 @@
         <v>19442</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11914</v>
+        <v>11298</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31186</v>
+        <v>31001</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02637111997652004</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01615969341771171</v>
+        <v>0.01532466841289453</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04230096206702186</v>
+        <v>0.04204929435589215</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4878</v>
+        <v>4861</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002638001445124729</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01334946191662143</v>
+        <v>0.01330279192805451</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1479,19 +1479,19 @@
         <v>3629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>934</v>
+        <v>971</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8818</v>
+        <v>9170</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009759881615423092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002512310333817387</v>
+        <v>0.00261082612358249</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02371242536141203</v>
+        <v>0.02465867983429591</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>4593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1732</v>
+        <v>1712</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10153</v>
+        <v>10358</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00623024377343392</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002349236278904294</v>
+        <v>0.002322291505704256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01377159982016445</v>
+        <v>0.01404968642260886</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>293081</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>268447</v>
+        <v>269536</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>315180</v>
+        <v>319378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5403517593903019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4949347590265224</v>
+        <v>0.4969431434341902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5810952776824727</v>
+        <v>0.5888348688248282</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -1625,19 +1625,19 @@
         <v>94257</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81759</v>
+        <v>81017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106914</v>
+        <v>105291</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5650831592607247</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4901551438441547</v>
+        <v>0.4857048940228319</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6409613815422281</v>
+        <v>0.6312359621213551</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>377</v>
@@ -1646,19 +1646,19 @@
         <v>387338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>359422</v>
+        <v>361982</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>412582</v>
+        <v>414778</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5461685899342338</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5068056538621111</v>
+        <v>0.5104147809100471</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5817647992172407</v>
+        <v>0.5848606523291543</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>147987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127345</v>
+        <v>125330</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169016</v>
+        <v>170099</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2728424556226881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2347853647261479</v>
+        <v>0.2310701852432226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3116136026099613</v>
+        <v>0.3136103225933366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -1696,19 +1696,19 @@
         <v>43432</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33344</v>
+        <v>32817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54534</v>
+        <v>55448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2603792947289961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1998997494331855</v>
+        <v>0.1967427753966655</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3269366910728294</v>
+        <v>0.3324180531975607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>191</v>
@@ -1717,19 +1717,19 @@
         <v>191419</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>168363</v>
+        <v>168088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>215550</v>
+        <v>214762</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2699111175124235</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2374016641407674</v>
+        <v>0.2370132715009033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3039373024498845</v>
+        <v>0.3028263751702424</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>81793</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>65769</v>
+        <v>65905</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>98268</v>
+        <v>99722</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1508011137228742</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1212582050225358</v>
+        <v>0.1215080962392776</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.181176229196586</v>
+        <v>0.1838566303824677</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -1767,19 +1767,19 @@
         <v>25220</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15529</v>
+        <v>17224</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34701</v>
+        <v>37535</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1511969787133164</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09309847327097136</v>
+        <v>0.1032574214493868</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.208036521155456</v>
+        <v>0.2250271589167657</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -1788,19 +1788,19 @@
         <v>107013</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>89019</v>
+        <v>89225</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>125734</v>
+        <v>125700</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1508942212533716</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1255215727859558</v>
+        <v>0.1258123410131471</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1772916108247884</v>
+        <v>0.1772440077901559</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>19529</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11986</v>
+        <v>11668</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30114</v>
+        <v>29294</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03600467126413576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02209801637172591</v>
+        <v>0.0215126663227794</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05552170769764901</v>
+        <v>0.05400990900648696</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10645</v>
+        <v>9336</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01634318337194304</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06382034603382238</v>
+        <v>0.05596758325153718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1859,19 +1859,19 @@
         <v>22255</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13829</v>
+        <v>14403</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34531</v>
+        <v>34720</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03138028510283198</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0194998541516003</v>
+        <v>0.02030959395245586</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04869044315760442</v>
+        <v>0.04895720834434345</v>
       </c>
     </row>
     <row r="20">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6716</v>
+        <v>5814</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006997383925019688</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04026493918957157</v>
+        <v>0.03485838517485843</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6577</v>
+        <v>6644</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001645786197139217</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009273845614052201</v>
+        <v>0.009367857791954847</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>613789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>579766</v>
+        <v>580128</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>649106</v>
+        <v>649597</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4956570510559958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.468182642202037</v>
+        <v>0.4684748333451765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5241771875086277</v>
+        <v>0.5245732235447285</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>354</v>
@@ -2047,19 +2047,19 @@
         <v>361509</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>335235</v>
+        <v>333473</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>386711</v>
+        <v>387045</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5061128646056255</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.469329364558465</v>
+        <v>0.4668620942226995</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5413953917712807</v>
+        <v>0.5418637922791454</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>953</v>
@@ -2068,19 +2068,19 @@
         <v>975298</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>932429</v>
+        <v>929852</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1021151</v>
+        <v>1023451</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4994818788586362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4775271849847005</v>
+        <v>0.4762072679837671</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5229642751108933</v>
+        <v>0.5241422769952367</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>381574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>347190</v>
+        <v>347037</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>413905</v>
+        <v>408831</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3081348456259391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2803686283212075</v>
+        <v>0.2802451219852917</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3342431358716502</v>
+        <v>0.3301463194105765</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>206</v>
@@ -2118,19 +2118,19 @@
         <v>211379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>187440</v>
+        <v>189037</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>236851</v>
+        <v>235990</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2959314479831535</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2624166642909004</v>
+        <v>0.2646525489972067</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3315920423379764</v>
+        <v>0.3303862982154789</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>585</v>
@@ -2139,19 +2139,19 @@
         <v>592954</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>551722</v>
+        <v>551405</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>634242</v>
+        <v>636687</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3036707363178254</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2825549427464903</v>
+        <v>0.2823924418301295</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3248157086983262</v>
+        <v>0.3260681247233324</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>196560</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>172116</v>
+        <v>171916</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>223154</v>
+        <v>220389</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1587292796201091</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.138989581662527</v>
+        <v>0.1388284281608894</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1802049030737221</v>
+        <v>0.1779721493354983</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>109</v>
@@ -2189,19 +2189,19 @@
         <v>115461</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>95504</v>
+        <v>96912</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>135530</v>
+        <v>138082</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1616457582512631</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1337058662204885</v>
+        <v>0.1356775204092294</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1897415973065695</v>
+        <v>0.1933145247610529</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>307</v>
@@ -2210,19 +2210,19 @@
         <v>312021</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>280089</v>
+        <v>278193</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>344581</v>
+        <v>344177</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.159796152943863</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1434424941107446</v>
+        <v>0.1424714518836506</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1764710942739807</v>
+        <v>0.1762640453269645</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>38286</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28126</v>
+        <v>27906</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51478</v>
+        <v>51994</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03091705258388278</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02271299282942801</v>
+        <v>0.02253548915153857</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04157063281953889</v>
+        <v>0.04198711021863013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2260,19 +2260,19 @@
         <v>25012</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16620</v>
+        <v>16075</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35934</v>
+        <v>36608</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03501676482207356</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02326741425756017</v>
+        <v>0.02250530182170565</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05030725954404015</v>
+        <v>0.05125194301470883</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>64</v>
@@ -2281,19 +2281,19 @@
         <v>63298</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49694</v>
+        <v>48509</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79005</v>
+        <v>78831</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03241676308245155</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02544967821652695</v>
+        <v>0.02484278924528365</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04046117098702969</v>
+        <v>0.04037215352530324</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>8126</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3658</v>
+        <v>3571</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16454</v>
+        <v>15889</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006561771114073254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002953902802534796</v>
+        <v>0.002883859954675584</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01328737538958284</v>
+        <v>0.01283133482551205</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4648</v>
+        <v>5120</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001293164337884248</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.006506780520831569</v>
+        <v>0.007168263651323154</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2352,19 +2352,19 @@
         <v>9049</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4559</v>
+        <v>4549</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17185</v>
+        <v>18036</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004634468797223782</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002335049042414624</v>
+        <v>0.002329860531238322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008801036913338089</v>
+        <v>0.009237066553236242</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>185463</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>167988</v>
+        <v>164541</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>205698</v>
+        <v>202882</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5290565764343392</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4792056204161949</v>
+        <v>0.4693719921807271</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.586777920547641</v>
+        <v>0.5787437175251025</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>269</v>
@@ -2477,19 +2477,19 @@
         <v>284785</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>259727</v>
+        <v>261782</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>308014</v>
+        <v>309529</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5007182719381826</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4566605292576391</v>
+        <v>0.4602744372231429</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5415616694847126</v>
+        <v>0.5442243668932994</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>447</v>
@@ -2498,19 +2498,19 @@
         <v>470248</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>441151</v>
+        <v>438478</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>502586</v>
+        <v>499032</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5115243908737862</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4798738084837657</v>
+        <v>0.4769658587643429</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5467010671605181</v>
+        <v>0.54283524885996</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>84305</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>69099</v>
+        <v>68514</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>101924</v>
+        <v>101404</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2404891691707071</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1971133511256464</v>
+        <v>0.195444451588079</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.290749784842697</v>
+        <v>0.2892656704436453</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>141</v>
@@ -2548,19 +2548,19 @@
         <v>146449</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>127706</v>
+        <v>123631</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>169403</v>
+        <v>165523</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2574920450054582</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2245367790457155</v>
+        <v>0.217371843087824</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2978497238504694</v>
+        <v>0.2910280735094626</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>223</v>
@@ -2569,19 +2569,19 @@
         <v>230754</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>203414</v>
+        <v>205878</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>256744</v>
+        <v>259578</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2510084143936642</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2212690202220627</v>
+        <v>0.2239488569009413</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2792799304655548</v>
+        <v>0.2823622708146026</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>63999</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48937</v>
+        <v>50970</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78860</v>
+        <v>80140</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1825642253009684</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1395996780103498</v>
+        <v>0.1453981277844187</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2249588292915087</v>
+        <v>0.2286099537969737</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>95</v>
@@ -2619,19 +2619,19 @@
         <v>101222</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>83950</v>
+        <v>84262</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>122836</v>
+        <v>120121</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1779716233457687</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1476037419177008</v>
+        <v>0.1481533087466111</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2159737490513097</v>
+        <v>0.2112012855221036</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>158</v>
@@ -2640,19 +2640,19 @@
         <v>165221</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>141810</v>
+        <v>143733</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>188788</v>
+        <v>189322</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1797228997130088</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.154257328774866</v>
+        <v>0.1563489476499452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2053592823463969</v>
+        <v>0.2059397899660302</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>14768</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8449</v>
+        <v>8143</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24066</v>
+        <v>23517</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04212697449158929</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02410069158030993</v>
+        <v>0.02322800601391735</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0686506934501101</v>
+        <v>0.06708609643729539</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>32</v>
@@ -2690,19 +2690,19 @@
         <v>34002</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>23880</v>
+        <v>24204</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47944</v>
+        <v>48336</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05978415463457187</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04198624254770553</v>
+        <v>0.04255607309744799</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08429613348694549</v>
+        <v>0.08498617198567478</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -2711,19 +2711,19 @@
         <v>48770</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>35470</v>
+        <v>36556</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63797</v>
+        <v>65589</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05305102108671527</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03858393773487474</v>
+        <v>0.03976470522951046</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06939684045766817</v>
+        <v>0.07134576005504112</v>
       </c>
     </row>
     <row r="32">
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6196</v>
+        <v>6948</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005763054602395931</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01767581758538973</v>
+        <v>0.01982072956136337</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7810</v>
+        <v>8079</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004033905076018561</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01373258140040798</v>
+        <v>0.01420519851774299</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -2782,19 +2782,19 @@
         <v>4315</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10760</v>
+        <v>10881</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004693273932825455</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001214753296354428</v>
+        <v>0.001216151240776628</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01170460545622064</v>
+        <v>0.01183563056597697</v>
       </c>
     </row>
     <row r="33">
@@ -2886,19 +2886,19 @@
         <v>186341</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>170765</v>
+        <v>169561</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>202351</v>
+        <v>203751</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6248836350084105</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5726507692975118</v>
+        <v>0.5686142769263085</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6785736017784088</v>
+        <v>0.6832662841058986</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>677</v>
@@ -2907,19 +2907,19 @@
         <v>676007</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>637783</v>
+        <v>640871</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>710565</v>
+        <v>712284</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5413422401712747</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.510733291977432</v>
+        <v>0.513206104820177</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5690168568426966</v>
+        <v>0.5703934221294138</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>866</v>
@@ -2928,19 +2928,19 @@
         <v>862347</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>825282</v>
+        <v>822154</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>900120</v>
+        <v>898788</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5574461366675777</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5334862513645238</v>
+        <v>0.5314642561006105</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5818639764501141</v>
+        <v>0.5810028139217719</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>80311</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>66375</v>
+        <v>64524</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>96425</v>
+        <v>94875</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2693176598896532</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2225844796712372</v>
+        <v>0.2163781143484915</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3233561603517953</v>
+        <v>0.3181589877061645</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>296</v>
@@ -2978,19 +2978,19 @@
         <v>297510</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>267779</v>
+        <v>269112</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>328703</v>
+        <v>330673</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2382439542005722</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2144356250454139</v>
+        <v>0.2155030944689476</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2632235753280885</v>
+        <v>0.2648007898198671</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>380</v>
@@ -2999,19 +2999,19 @@
         <v>377820</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>344182</v>
+        <v>344443</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>409848</v>
+        <v>412510</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2442338917776151</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2224891206662542</v>
+        <v>0.2226578036167182</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.264937936738375</v>
+        <v>0.2666581621481733</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>28715</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20803</v>
+        <v>19856</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>39894</v>
+        <v>40905</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09629445111608564</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06976171973634411</v>
+        <v>0.06658611199984862</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.133781497433992</v>
+        <v>0.1371712910938972</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>202</v>
@@ -3049,19 +3049,19 @@
         <v>208640</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>183363</v>
+        <v>183225</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>235323</v>
+        <v>236325</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1670777029440262</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1468356952603528</v>
+        <v>0.1467259288515199</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.188445155552981</v>
+        <v>0.1892476919747534</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>232</v>
@@ -3070,19 +3070,19 @@
         <v>237355</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>207231</v>
+        <v>209272</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>263974</v>
+        <v>266233</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1534331359203236</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1339601729428325</v>
+        <v>0.1352794435764196</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.170640653697252</v>
+        <v>0.1721010704211739</v>
       </c>
     </row>
     <row r="37">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6144</v>
+        <v>6629</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.006394198328087276</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02060223932769145</v>
+        <v>0.02223083314775819</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -3120,19 +3120,19 @@
         <v>57987</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45274</v>
+        <v>43788</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>74170</v>
+        <v>75338</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04643599591853673</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03625504393140994</v>
+        <v>0.03506537345327103</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05939522405211362</v>
+        <v>0.06033051416464575</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>57</v>
@@ -3141,19 +3141,19 @@
         <v>59894</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>45228</v>
+        <v>45795</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>76396</v>
+        <v>77210</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03871731986363477</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02923662807869583</v>
+        <v>0.02960308366999037</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04938473828478476</v>
+        <v>0.04991088798081</v>
       </c>
     </row>
     <row r="38">
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5180</v>
+        <v>4703</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003110055657763353</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01737246439548934</v>
+        <v>0.0157715014755573</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -3191,19 +3191,19 @@
         <v>8617</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4122</v>
+        <v>4217</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16423</v>
+        <v>16195</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.006900106765590142</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003300767731841555</v>
+        <v>0.003377182558535322</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01315171281303817</v>
+        <v>0.01296868538123797</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>9</v>
@@ -3212,19 +3212,19 @@
         <v>9544</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4814</v>
+        <v>4368</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>17924</v>
+        <v>17996</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.006169515770848817</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003111942239420779</v>
+        <v>0.002823618326507845</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0115866832731185</v>
+        <v>0.0116331434299431</v>
       </c>
     </row>
     <row r="39">
@@ -3316,19 +3316,19 @@
         <v>1790082</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1729617</v>
+        <v>1727700</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1840770</v>
+        <v>1844902</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5476534067116382</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5291549046291113</v>
+        <v>0.5285685731696087</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5631607629503306</v>
+        <v>0.5644248389469705</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1805</v>
@@ -3337,19 +3337,19 @@
         <v>1838997</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1781987</v>
+        <v>1781009</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1901077</v>
+        <v>1897467</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5445419968662074</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5276610578154015</v>
+        <v>0.5273713069569979</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5629245957421486</v>
+        <v>0.5618555119649914</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3544</v>
@@ -3358,19 +3358,19 @@
         <v>3629079</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3544818</v>
+        <v>3546056</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3706655</v>
+        <v>3704491</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5460723021961763</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5333935721985461</v>
+        <v>0.5335797640908355</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5577453683811319</v>
+        <v>0.5574197032476274</v>
       </c>
     </row>
     <row r="41">
@@ -3387,19 +3387,19 @@
         <v>908557</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>857560</v>
+        <v>859728</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>964784</v>
+        <v>967821</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2779617943966339</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2623597402614049</v>
+        <v>0.2630231805732307</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2951637193935078</v>
+        <v>0.2960929861063055</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>844</v>
@@ -3408,19 +3408,19 @@
         <v>857408</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>804896</v>
+        <v>810941</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>910531</v>
+        <v>906444</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2538855772364403</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2383362805068705</v>
+        <v>0.2401261747864964</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2696156809677657</v>
+        <v>0.2684054110988576</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1746</v>
@@ -3429,19 +3429,19 @@
         <v>1765965</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1696050</v>
+        <v>1696269</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1834959</v>
+        <v>1839907</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.26572714272478</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2552068589709646</v>
+        <v>0.2552398616404407</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2761087403919761</v>
+        <v>0.2768533173518571</v>
       </c>
     </row>
     <row r="42">
@@ -3458,19 +3458,19 @@
         <v>456821</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>419377</v>
+        <v>419873</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>498306</v>
+        <v>500789</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1397587971625548</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1283032914423442</v>
+        <v>0.1284550694452038</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1524506758686797</v>
+        <v>0.1532101516720875</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>499</v>
@@ -3479,19 +3479,19 @@
         <v>523875</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>481980</v>
+        <v>481753</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>567350</v>
+        <v>565133</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1551236360180778</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1427182681425231</v>
+        <v>0.1426508659846134</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1679969348189524</v>
+        <v>0.1673405609258329</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>954</v>
@@ -3500,19 +3500,19 @@
         <v>980696</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>923061</v>
+        <v>928170</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1039733</v>
+        <v>1046078</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1475666454694845</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1388942721078885</v>
+        <v>0.1396630412356945</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1564500008318517</v>
+        <v>0.1574046913568242</v>
       </c>
     </row>
     <row r="43">
@@ -3529,19 +3529,19 @@
         <v>100333</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>82560</v>
+        <v>80973</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>123165</v>
+        <v>123527</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03069569803492412</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02525822659884829</v>
+        <v>0.02477271136488669</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03768069495101131</v>
+        <v>0.03779152776021352</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>130</v>
@@ -3550,19 +3550,19 @@
         <v>139002</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>117046</v>
+        <v>116582</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>163935</v>
+        <v>168327</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04115971529469833</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03465840700059059</v>
+        <v>0.03452084744370931</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04854250284114979</v>
+        <v>0.04984298249361714</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>227</v>
@@ -3571,19 +3571,19 @@
         <v>239335</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>209295</v>
+        <v>208531</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>268168</v>
+        <v>270994</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03601312831933243</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03149295809311961</v>
+        <v>0.03137797778449084</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04035159664952844</v>
+        <v>0.04077683285787124</v>
       </c>
     </row>
     <row r="44">
@@ -3600,19 +3600,19 @@
         <v>12847</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>7440</v>
+        <v>7263</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>20952</v>
+        <v>21687</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.003930303694249113</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002276028151721111</v>
+        <v>0.002222118679711201</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.006410105600365629</v>
+        <v>0.006634864452803656</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -3621,19 +3621,19 @@
         <v>17862</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>10440</v>
+        <v>11020</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>28650</v>
+        <v>28009</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.005289074584576229</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003091330472713448</v>
+        <v>0.003263028743317898</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.00848347501664738</v>
+        <v>0.008293777987173687</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>30</v>
@@ -3642,19 +3642,19 @@
         <v>30709</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>21290</v>
+        <v>20775</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>43830</v>
+        <v>42271</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.004620781290226793</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.00320354944331713</v>
+        <v>0.003125971603512851</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006595094494467552</v>
+        <v>0.006360511492068596</v>
       </c>
     </row>
     <row r="45">
@@ -3988,19 +3988,19 @@
         <v>277079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>255830</v>
+        <v>255448</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>296567</v>
+        <v>297877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6352655960602314</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5865475596774646</v>
+        <v>0.5856720682932087</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6799444731936111</v>
+        <v>0.6829487562370847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -4009,19 +4009,19 @@
         <v>195530</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>177034</v>
+        <v>175352</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>213232</v>
+        <v>213658</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6218080303337211</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5629893615770679</v>
+        <v>0.5576394745302737</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6781029840578724</v>
+        <v>0.6794574887482862</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>435</v>
@@ -4030,19 +4030,19 @@
         <v>472609</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>444507</v>
+        <v>445658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>501066</v>
+        <v>501347</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6296278490903331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5921890468660147</v>
+        <v>0.5937222463123148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6675384479602153</v>
+        <v>0.6679127589055212</v>
       </c>
     </row>
     <row r="5">
@@ -4059,19 +4059,19 @@
         <v>100359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83548</v>
+        <v>81481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119582</v>
+        <v>118771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.230095418599133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1915531048512987</v>
+        <v>0.186814044172771</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.274168086995252</v>
+        <v>0.2723085793085779</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>79</v>
@@ -4080,19 +4080,19 @@
         <v>90754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74214</v>
+        <v>73456</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109067</v>
+        <v>109055</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2886084132447418</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2360084850158643</v>
+        <v>0.2335972211466555</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3468466992389269</v>
+        <v>0.3468088514601453</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>173</v>
@@ -4101,19 +4101,19 @@
         <v>191113</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>166122</v>
+        <v>166232</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>219679</v>
+        <v>216228</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2546081324856509</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2213134787000438</v>
+        <v>0.2214611445654034</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2926644870924429</v>
+        <v>0.288067243359668</v>
       </c>
     </row>
     <row r="6">
@@ -4130,19 +4130,19 @@
         <v>43978</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33538</v>
+        <v>32775</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61752</v>
+        <v>60318</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1008290777966294</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.076893671663192</v>
+        <v>0.07514386957914704</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1415791887606068</v>
+        <v>0.1382927357619269</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -4151,19 +4151,19 @@
         <v>22289</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13461</v>
+        <v>14450</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33587</v>
+        <v>33325</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07088176228898417</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04280870973818986</v>
+        <v>0.04595394302456931</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1068109276985872</v>
+        <v>0.1059768824268772</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -4172,19 +4172,19 @@
         <v>66267</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50453</v>
+        <v>50946</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84175</v>
+        <v>83346</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08828331798456893</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06721485879384892</v>
+        <v>0.06787243769842868</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1121417351810863</v>
+        <v>0.1110367824524506</v>
       </c>
     </row>
     <row r="7">
@@ -4201,19 +4201,19 @@
         <v>10508</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4909</v>
+        <v>4580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19876</v>
+        <v>19351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02409303257962047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01125471824713383</v>
+        <v>0.0105002049161211</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04557045079201878</v>
+        <v>0.04436637838203091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6530</v>
+        <v>6911</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006040986353388753</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02076593308260681</v>
+        <v>0.02197804832643578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4243,19 +4243,19 @@
         <v>12408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6671</v>
+        <v>6288</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22240</v>
+        <v>21131</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01653053049115452</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008886839662018444</v>
+        <v>0.008377745957193166</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02962854064397206</v>
+        <v>0.02815192427425798</v>
       </c>
     </row>
     <row r="8">
@@ -4272,19 +4272,19 @@
         <v>4238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14784</v>
+        <v>12990</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009716874964385848</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00220453801982568</v>
+        <v>0.002173750157266151</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03389648527092241</v>
+        <v>0.02978195067901111</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4293,19 +4293,19 @@
         <v>3981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11952</v>
+        <v>11379</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01266080777916412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003192135824088206</v>
+        <v>0.003182333870226811</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03800914055841786</v>
+        <v>0.03618628517024827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4314,19 +4314,19 @@
         <v>8219</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3068</v>
+        <v>3057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18022</v>
+        <v>17942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01095016994829258</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004087785351365802</v>
+        <v>0.004072400848737257</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02400907091345857</v>
+        <v>0.02390254875264486</v>
       </c>
     </row>
     <row r="9">
@@ -4418,19 +4418,19 @@
         <v>269897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>250120</v>
+        <v>247827</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>293205</v>
+        <v>289792</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.647594129842753</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6001430067628655</v>
+        <v>0.5946402343288221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7035211200558933</v>
+        <v>0.6953314996682343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>185</v>
@@ -4439,19 +4439,19 @@
         <v>205028</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>185986</v>
+        <v>186954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223546</v>
+        <v>223506</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6084418866120327</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5519324844807501</v>
+        <v>0.5548063674320323</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6633964163198461</v>
+        <v>0.6632769516741184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>432</v>
@@ -4460,19 +4460,19 @@
         <v>474924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>446895</v>
+        <v>444095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>504158</v>
+        <v>503127</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6300904821872407</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5929039393654929</v>
+        <v>0.5891885918981011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6688750865904255</v>
+        <v>0.6675077515599476</v>
       </c>
     </row>
     <row r="11">
@@ -4489,19 +4489,19 @@
         <v>104921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85967</v>
+        <v>86760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123454</v>
+        <v>125309</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2517490551690278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2062707009371794</v>
+        <v>0.2081729801243651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2962170706911793</v>
+        <v>0.3006692110552109</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -4510,19 +4510,19 @@
         <v>92709</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76283</v>
+        <v>75477</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>109340</v>
+        <v>111532</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2751229462312719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2263782175128993</v>
+        <v>0.223984806914742</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3244779734350356</v>
+        <v>0.3309832431186622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>177</v>
@@ -4531,19 +4531,19 @@
         <v>197630</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>173028</v>
+        <v>174083</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>225024</v>
+        <v>225955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2621987336480078</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2295597154644724</v>
+        <v>0.2309587156543185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2985432124585199</v>
+        <v>0.2997779538504407</v>
       </c>
     </row>
     <row r="12">
@@ -4560,19 +4560,19 @@
         <v>36916</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24156</v>
+        <v>23563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51573</v>
+        <v>52257</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0885765234409684</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05796085038381179</v>
+        <v>0.05653645669719648</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1237453018655186</v>
+        <v>0.1253873207655923</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -4581,19 +4581,19 @@
         <v>24543</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15854</v>
+        <v>15506</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35486</v>
+        <v>35914</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07283410292134608</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04704785617534033</v>
+        <v>0.04601608279581491</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1053078301747125</v>
+        <v>0.1065797296356983</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -4602,19 +4602,19 @@
         <v>61459</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45034</v>
+        <v>46038</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>80342</v>
+        <v>82354</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08153861809295071</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.059747706364273</v>
+        <v>0.06107943171976626</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1065915806769548</v>
+        <v>0.1092602479124984</v>
       </c>
     </row>
     <row r="13">
@@ -4631,19 +4631,19 @@
         <v>5035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1840</v>
+        <v>1865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10985</v>
+        <v>11833</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01208029154725076</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004413790228745313</v>
+        <v>0.004474336802399294</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02635780687579752</v>
+        <v>0.02839125091371911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4652,19 +4652,19 @@
         <v>8622</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3829</v>
+        <v>3872</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18918</v>
+        <v>17619</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0255873766975705</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01136316842560657</v>
+        <v>0.01149037993363091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05614005712485649</v>
+        <v>0.05228634123278504</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -4673,19 +4673,19 @@
         <v>13657</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7125</v>
+        <v>7272</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23957</v>
+        <v>25275</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01811885383168949</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009452419878194233</v>
+        <v>0.009648550715268213</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03178378248909151</v>
+        <v>0.03353212349019434</v>
       </c>
     </row>
     <row r="14">
@@ -4715,19 +4715,19 @@
         <v>6070</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2916</v>
+        <v>2922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13302</v>
+        <v>13065</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01801368753777883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008653324348497618</v>
+        <v>0.008671168688883161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03947376260955996</v>
+        <v>0.03877307446657154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -4736,19 +4736,19 @@
         <v>6070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2041</v>
+        <v>2079</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13097</v>
+        <v>12338</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008053312240111268</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002707168404433726</v>
+        <v>0.002758515135204729</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01737562644400453</v>
+        <v>0.01636902248614751</v>
       </c>
     </row>
     <row r="15">
@@ -4840,19 +4840,19 @@
         <v>388632</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>363209</v>
+        <v>363759</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>412430</v>
+        <v>415468</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6211141644511952</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5804832302286366</v>
+        <v>0.581363125485246</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6591486194218941</v>
+        <v>0.66400453040816</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>131</v>
@@ -4861,19 +4861,19 @@
         <v>139820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123872</v>
+        <v>123422</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>154454</v>
+        <v>154253</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5375036562512706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4761944121871313</v>
+        <v>0.4744628111475041</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5937583514701488</v>
+        <v>0.5929865734638303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>498</v>
@@ -4882,19 +4882,19 @@
         <v>528453</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>496788</v>
+        <v>494005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>560811</v>
+        <v>555418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5965614443349699</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.560815898185653</v>
+        <v>0.5576736962212656</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6330898031704888</v>
+        <v>0.6270024994529659</v>
       </c>
     </row>
     <row r="17">
@@ -4911,19 +4911,19 @@
         <v>158310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139071</v>
+        <v>136501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182341</v>
+        <v>180460</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2530121864083429</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2222646566184842</v>
+        <v>0.218156280535564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2914189501589101</v>
+        <v>0.2884123095697724</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -4932,19 +4932,19 @@
         <v>89999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75640</v>
+        <v>75079</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106742</v>
+        <v>105810</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3459789680023231</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2907793505159561</v>
+        <v>0.2886217586584552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4103407962972131</v>
+        <v>0.4067596381646433</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>232</v>
@@ -4953,19 +4953,19 @@
         <v>248309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>219148</v>
+        <v>222449</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>278224</v>
+        <v>276787</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2803124315297486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2473923097163155</v>
+        <v>0.2511192354358462</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3140824212457474</v>
+        <v>0.3124602203930905</v>
       </c>
     </row>
     <row r="18">
@@ -4982,19 +4982,19 @@
         <v>60808</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45530</v>
+        <v>47411</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77081</v>
+        <v>76912</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09718352203927097</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07276622458187315</v>
+        <v>0.07577314794295825</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1231910436893876</v>
+        <v>0.1229214829684444</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -5003,19 +5003,19 @@
         <v>24262</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16388</v>
+        <v>15795</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36067</v>
+        <v>35963</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09326858932018287</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06300134505406192</v>
+        <v>0.0607184779594873</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1386512622048257</v>
+        <v>0.1382491172334658</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -5024,19 +5024,19 @@
         <v>85070</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68169</v>
+        <v>68117</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>105640</v>
+        <v>105380</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09603387889757661</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07695525688251562</v>
+        <v>0.07689651566967681</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.119254969092089</v>
+        <v>0.1189620031970077</v>
       </c>
     </row>
     <row r="19">
@@ -5053,19 +5053,19 @@
         <v>13855</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7516</v>
+        <v>7637</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24123</v>
+        <v>23083</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02214357701244228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01201267103405617</v>
+        <v>0.01220616560914019</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03855283108159274</v>
+        <v>0.03689206306096182</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5074,19 +5074,19 @@
         <v>4108</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10155</v>
+        <v>10145</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01579162042770044</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004168053867287442</v>
+        <v>0.004144771470778173</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03904022497163653</v>
+        <v>0.03900147846439636</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -5095,19 +5095,19 @@
         <v>17963</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10096</v>
+        <v>10658</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28733</v>
+        <v>27886</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02027828740264033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01139766868768964</v>
+        <v>0.01203170812382484</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0324365775473125</v>
+        <v>0.03148035808602531</v>
       </c>
     </row>
     <row r="20">
@@ -5124,19 +5124,19 @@
         <v>4096</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10523</v>
+        <v>10095</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006546550088748707</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001661296522675559</v>
+        <v>0.001662312627882697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01681754532451415</v>
+        <v>0.01613467148294393</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6239</v>
+        <v>7372</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007457165998522888</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02398579565230084</v>
+        <v>0.02834066473858221</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -5166,19 +5166,19 @@
         <v>6036</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2248</v>
+        <v>2032</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13180</v>
+        <v>12171</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006813957835064588</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002537340946362631</v>
+        <v>0.002293694088333564</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01487832064966617</v>
+        <v>0.01373966584609768</v>
       </c>
     </row>
     <row r="21">
@@ -5270,19 +5270,19 @@
         <v>655125</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>619646</v>
+        <v>620376</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>688704</v>
+        <v>689239</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5681735810512478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5374037542433848</v>
+        <v>0.5380370686667362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.597296282921323</v>
+        <v>0.5977601446078461</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>409</v>
@@ -5291,19 +5291,19 @@
         <v>436804</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>407527</v>
+        <v>406737</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>463934</v>
+        <v>465861</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5712074518005459</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5329212937769059</v>
+        <v>0.5318886076901524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6066847459800851</v>
+        <v>0.6092045283951076</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1024</v>
@@ -5312,19 +5312,19 @@
         <v>1091929</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1048101</v>
+        <v>1047385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1137139</v>
+        <v>1134520</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5693833446700267</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5465295791753266</v>
+        <v>0.546155925726987</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5929583358022207</v>
+        <v>0.5915924257690459</v>
       </c>
     </row>
     <row r="23">
@@ -5341,19 +5341,19 @@
         <v>305845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>274184</v>
+        <v>276468</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>339510</v>
+        <v>339792</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2652517653262293</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2377927079789695</v>
+        <v>0.2397735216759664</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2944485384635693</v>
+        <v>0.2946929618323935</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>214</v>
@@ -5362,19 +5362,19 @@
         <v>231273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>205160</v>
+        <v>207070</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>258845</v>
+        <v>259331</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3024349588682847</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2682875724003511</v>
+        <v>0.2707842162189185</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3384905312507338</v>
+        <v>0.3391268033797936</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>498</v>
@@ -5383,19 +5383,19 @@
         <v>537118</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>499853</v>
+        <v>497237</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>577626</v>
+        <v>580212</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2800786576015841</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2606472686449761</v>
+        <v>0.2592827715250706</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3012014192408984</v>
+        <v>0.3025501381950136</v>
       </c>
     </row>
     <row r="24">
@@ -5412,19 +5412,19 @@
         <v>138133</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>115748</v>
+        <v>115824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>163161</v>
+        <v>161680</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1197990802215436</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.100385715527321</v>
+        <v>0.1004509400864231</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1415056761530206</v>
+        <v>0.1402208462119602</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -5433,19 +5433,19 @@
         <v>72627</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>58548</v>
+        <v>57044</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>94604</v>
+        <v>92489</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09497474329533022</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07656268217259497</v>
+        <v>0.07459647497980645</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1237129690018285</v>
+        <v>0.1209480492602542</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>194</v>
@@ -5454,19 +5454,19 @@
         <v>210760</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>182949</v>
+        <v>183454</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>239182</v>
+        <v>239615</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1099003132155364</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0953983136977257</v>
+        <v>0.09566181127259658</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1247209760935622</v>
+        <v>0.1249468644167104</v>
       </c>
     </row>
     <row r="25">
@@ -5483,19 +5483,19 @@
         <v>40692</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28478</v>
+        <v>29353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53140</v>
+        <v>53037</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03529125155110557</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0246978943215098</v>
+        <v>0.02545729554076685</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0460874462409061</v>
+        <v>0.04599798040062058</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -5504,19 +5504,19 @@
         <v>12394</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5816</v>
+        <v>5627</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22151</v>
+        <v>21473</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01620752534812653</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007605943011959204</v>
+        <v>0.007358990563397954</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02896675152224903</v>
+        <v>0.02808001225874189</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -5525,19 +5525,19 @@
         <v>53086</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40460</v>
+        <v>38404</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70961</v>
+        <v>69331</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02768156756030183</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02109771225576365</v>
+        <v>0.02002572035091325</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03700228448349555</v>
+        <v>0.03615231625587952</v>
       </c>
     </row>
     <row r="26">
@@ -5554,19 +5554,19 @@
         <v>13242</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7150</v>
+        <v>7928</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22080</v>
+        <v>23385</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01148432184987377</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006201154110656536</v>
+        <v>0.006875851405603362</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01914949143302127</v>
+        <v>0.0202814836680652</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -5575,19 +5575,19 @@
         <v>11605</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5858</v>
+        <v>5469</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21888</v>
+        <v>21949</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01517532068771268</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007661022072220846</v>
+        <v>0.007152168114918907</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02862261558236028</v>
+        <v>0.02870269098413135</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -5596,19 +5596,19 @@
         <v>24846</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16013</v>
+        <v>15959</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>37391</v>
+        <v>37219</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01295611695255101</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00835016298934042</v>
+        <v>0.008321656057288084</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0194976329856269</v>
+        <v>0.01940752415921128</v>
       </c>
     </row>
     <row r="27">
@@ -5700,19 +5700,19 @@
         <v>280379</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>258378</v>
+        <v>255337</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>301998</v>
+        <v>302903</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5548900651342379</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.511348221496863</v>
+        <v>0.5053303763624354</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5976747503109066</v>
+        <v>0.5994665406793965</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>370</v>
@@ -5721,19 +5721,19 @@
         <v>401556</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>375633</v>
+        <v>373859</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>428422</v>
+        <v>431085</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5280697020125097</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4939800420841725</v>
+        <v>0.4916473473980832</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5633997887414988</v>
+        <v>0.5669023166207604</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>642</v>
@@ -5742,19 +5742,19 @@
         <v>681935</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>646076</v>
+        <v>646081</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>716043</v>
+        <v>716094</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5387767450173712</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5104454295094941</v>
+        <v>0.5104492442024783</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.565724280260783</v>
+        <v>0.5657643040590061</v>
       </c>
     </row>
     <row r="29">
@@ -5771,19 +5771,19 @@
         <v>158525</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>137053</v>
+        <v>136939</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>181384</v>
+        <v>179376</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3137329146718015</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2712383107644652</v>
+        <v>0.2710114831159739</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3589711858650554</v>
+        <v>0.3549977353939451</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>222</v>
@@ -5792,19 +5792,19 @@
         <v>237288</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>210086</v>
+        <v>211637</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>261146</v>
+        <v>263895</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3120484346284751</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2762759153617715</v>
+        <v>0.2783155149325401</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3434222932278849</v>
+        <v>0.3470377582964024</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>370</v>
@@ -5813,19 +5813,19 @@
         <v>395814</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>360796</v>
+        <v>364598</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>425221</v>
+        <v>433853</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3127209012980303</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2850541462019146</v>
+        <v>0.2880582526154494</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3359542257258146</v>
+        <v>0.3427744327476838</v>
       </c>
     </row>
     <row r="30">
@@ -5842,19 +5842,19 @@
         <v>55365</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41404</v>
+        <v>42531</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>70809</v>
+        <v>71107</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1095704952015126</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08194166140133405</v>
+        <v>0.08417259270660878</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1401358117097993</v>
+        <v>0.1407260149460318</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>88</v>
@@ -5863,19 +5863,19 @@
         <v>99026</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>80124</v>
+        <v>80410</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>121320</v>
+        <v>118745</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1302251675221073</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1053673855335853</v>
+        <v>0.1057443379418727</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1595429395440114</v>
+        <v>0.1561567486886748</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>140</v>
@@ -5884,19 +5884,19 @@
         <v>154391</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>129275</v>
+        <v>132241</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>178947</v>
+        <v>179271</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.121979549676286</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1021364494811437</v>
+        <v>0.1044798619964752</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1413807885287287</v>
+        <v>0.1416365596284943</v>
       </c>
     </row>
     <row r="31">
@@ -5913,19 +5913,19 @@
         <v>9874</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5369</v>
+        <v>4425</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18614</v>
+        <v>17714</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01954142977094426</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01062468264367606</v>
+        <v>0.008756442833874098</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03683893640925336</v>
+        <v>0.03505761006524338</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -5934,19 +5934,19 @@
         <v>17510</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10979</v>
+        <v>10221</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>27711</v>
+        <v>26612</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02302652711173926</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01443742953252643</v>
+        <v>0.01344131408559242</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03644204788229886</v>
+        <v>0.03499662113107978</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>26</v>
@@ -5955,19 +5955,19 @@
         <v>27384</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18302</v>
+        <v>19249</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>38548</v>
+        <v>41059</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02163523024768636</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01445947607157124</v>
+        <v>0.01520815706293514</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03045564693718189</v>
+        <v>0.03243933188754164</v>
       </c>
     </row>
     <row r="32">
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5695</v>
+        <v>5365</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002265095221503735</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0112700727020992</v>
+        <v>0.01061831275541183</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -6005,19 +6005,19 @@
         <v>5042</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1959</v>
+        <v>2002</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11128</v>
+        <v>11259</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006630168725168489</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002576695476425083</v>
+        <v>0.002632200990305862</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01463396166239461</v>
+        <v>0.01480592426581887</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -6026,19 +6026,19 @@
         <v>6186</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2294</v>
+        <v>2163</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12742</v>
+        <v>12558</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004887573760626179</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001812181073981854</v>
+        <v>0.001708650672218128</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01006707124066228</v>
+        <v>0.009921356028673162</v>
       </c>
     </row>
     <row r="33">
@@ -6130,19 +6130,19 @@
         <v>174008</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>157304</v>
+        <v>157850</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>189612</v>
+        <v>190123</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6543020626442506</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5914898544182385</v>
+        <v>0.5935438999041129</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7129728731757206</v>
+        <v>0.714896819112891</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>589</v>
@@ -6151,19 +6151,19 @@
         <v>623987</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>589876</v>
+        <v>591163</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>659313</v>
+        <v>658280</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5635288169015136</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5327231302535742</v>
+        <v>0.5338848719506993</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5954320463762873</v>
+        <v>0.5944987185873289</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>764</v>
@@ -6172,19 +6172,19 @@
         <v>797995</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>760961</v>
+        <v>758647</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>833261</v>
+        <v>833802</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5811083074374205</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5541392140430552</v>
+        <v>0.5524547649407858</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6067892894588782</v>
+        <v>0.6071830556940895</v>
       </c>
     </row>
     <row r="35">
@@ -6201,19 +6201,19 @@
         <v>62785</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>49837</v>
+        <v>49080</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>78244</v>
+        <v>77644</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2360826389827245</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1873961650137214</v>
+        <v>0.1845505289845424</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2942095596480889</v>
+        <v>0.2919568546009084</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>310</v>
@@ -6222,19 +6222,19 @@
         <v>330203</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>297514</v>
+        <v>299541</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>361524</v>
+        <v>362518</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2982098144089136</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2686877625942071</v>
+        <v>0.2705182418269879</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3264957411844855</v>
+        <v>0.3273937845176345</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>371</v>
@@ -6243,19 +6243,19 @@
         <v>392988</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>359943</v>
+        <v>361166</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>430457</v>
+        <v>427766</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2861780303354141</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2621143722139745</v>
+        <v>0.2630044663602919</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3134633481273987</v>
+        <v>0.3115036544161365</v>
       </c>
     </row>
     <row r="36">
@@ -6272,19 +6272,19 @@
         <v>25075</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16335</v>
+        <v>17090</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>36196</v>
+        <v>37532</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09428533082232303</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06142200041502274</v>
+        <v>0.06426220734583296</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1361033384793333</v>
+        <v>0.1411275097516693</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>109</v>
@@ -6293,19 +6293,19 @@
         <v>115362</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>95713</v>
+        <v>97081</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>137736</v>
+        <v>138030</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1041850086911469</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08643928626516284</v>
+        <v>0.08767522065081189</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1243903221696945</v>
+        <v>0.1246562306806097</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>133</v>
@@ -6314,19 +6314,19 @@
         <v>140437</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>119750</v>
+        <v>116718</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>163658</v>
+        <v>165088</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1022677995842175</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08720305590203702</v>
+        <v>0.08499487475280845</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1191776552520085</v>
+        <v>0.1202186975816419</v>
       </c>
     </row>
     <row r="37">
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5649</v>
+        <v>6490</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.006938130095874531</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02124300003517774</v>
+        <v>0.02440513197364605</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>29</v>
@@ -6364,19 +6364,19 @@
         <v>32617</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>22148</v>
+        <v>23117</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>45624</v>
+        <v>46025</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02945635194943225</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02000229711450718</v>
+        <v>0.02087729353283967</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04120369474657157</v>
+        <v>0.04156549161634449</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>31</v>
@@ -6385,19 +6385,19 @@
         <v>34462</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23415</v>
+        <v>23303</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>48795</v>
+        <v>47524</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02509538782700806</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01705068597025892</v>
+        <v>0.01696958476062933</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03553336205356222</v>
+        <v>0.034607408611356</v>
       </c>
     </row>
     <row r="38">
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8314</v>
+        <v>7441</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.008391837454827347</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03126368514461117</v>
+        <v>0.02797965984989126</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5</v>
@@ -6435,19 +6435,19 @@
         <v>5116</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1962</v>
+        <v>1971</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11358</v>
+        <v>12204</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.004620008048993685</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001771879928800375</v>
+        <v>0.001779785493895794</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01025766582407216</v>
+        <v>0.01102198014344044</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7</v>
@@ -6456,19 +6456,19 @@
         <v>7347</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3142</v>
+        <v>3241</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15139</v>
+        <v>14704</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005350474815939867</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002288291985162129</v>
+        <v>0.002359985857297344</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01102425769621125</v>
+        <v>0.01070736177624521</v>
       </c>
     </row>
     <row r="39">
@@ -6560,19 +6560,19 @@
         <v>2045120</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1982978</v>
+        <v>1986028</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2102703</v>
+        <v>2102763</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6009930514737276</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5827315442175398</v>
+        <v>0.583627843518869</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.617914756738093</v>
+        <v>0.6179323697831766</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1863</v>
@@ -6581,19 +6581,19 @@
         <v>2002726</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1941779</v>
+        <v>1947383</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2063668</v>
+        <v>2063235</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.565108583921115</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5479111781811246</v>
+        <v>0.5494927049067316</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5823045911545613</v>
+        <v>0.582182416637829</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3795</v>
@@ -6602,19 +6602,19 @@
         <v>4047845</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3966526</v>
+        <v>3962905</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4136030</v>
+        <v>4134031</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5826864781983526</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5709804947075727</v>
+        <v>0.570459323006327</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5953805571017822</v>
+        <v>0.5950928942185297</v>
       </c>
     </row>
     <row r="41">
@@ -6631,19 +6631,19 @@
         <v>890745</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>833695</v>
+        <v>839776</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>945286</v>
+        <v>943565</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2617605886340826</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2449953811280179</v>
+        <v>0.2467823044536056</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2777881407241137</v>
+        <v>0.2772826010935545</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>994</v>
@@ -6652,19 +6652,19 @@
         <v>1072227</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1016042</v>
+        <v>1015539</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1130241</v>
+        <v>1126935</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3025500139808485</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2866963155295066</v>
+        <v>0.2865542752917843</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3189197687026312</v>
+        <v>0.3179869632809475</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1821</v>
@@ -6673,19 +6673,19 @@
         <v>1962972</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1886305</v>
+        <v>1888494</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2045832</v>
+        <v>2048443</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.282569441458113</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2715332329488055</v>
+        <v>0.2718482648213968</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2944971240986652</v>
+        <v>0.2948729654569731</v>
       </c>
     </row>
     <row r="42">
@@ -6702,19 +6702,19 @@
         <v>360274</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>318368</v>
+        <v>324630</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>400029</v>
+        <v>400536</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1058724934681073</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.09355789674208571</v>
+        <v>0.09539791159982276</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1175551852520546</v>
+        <v>0.1177043755621913</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>328</v>
@@ -6723,19 +6723,19 @@
         <v>358110</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>318142</v>
+        <v>322290</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>394297</v>
+        <v>396414</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1010478458248192</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08976994785272194</v>
+        <v>0.09094036319041811</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1112586370680692</v>
+        <v>0.1118560807503461</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>657</v>
@@ -6744,19 +6744,19 @@
         <v>718384</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>665657</v>
+        <v>662522</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>774765</v>
+        <v>772673</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1034111843939174</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09582114175872586</v>
+        <v>0.09536993913120032</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1115271873533855</v>
+        <v>0.1112260646182363</v>
       </c>
     </row>
     <row r="43">
@@ -6773,19 +6773,19 @@
         <v>81810</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>64552</v>
+        <v>65687</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>102775</v>
+        <v>102616</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02404116764027621</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01896958775759657</v>
+        <v>0.01930310904825231</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03020212411925885</v>
+        <v>0.0301555331764768</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>69</v>
@@ -6794,19 +6794,19 @@
         <v>77150</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>60915</v>
+        <v>61227</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>98136</v>
+        <v>96757</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02176942845090334</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01718823702365555</v>
+        <v>0.01727646871299431</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02769088909663801</v>
+        <v>0.02730189797677871</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>145</v>
@@ -6815,19 +6815,19 @@
         <v>158960</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>133407</v>
+        <v>134322</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>184063</v>
+        <v>184976</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02288223279271798</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01920395340727022</v>
+        <v>0.01933565400491236</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02649578349425641</v>
+        <v>0.02662729399389859</v>
       </c>
     </row>
     <row r="44">
@@ -6844,19 +6844,19 @@
         <v>24952</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>16212</v>
+        <v>15827</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>38334</v>
+        <v>37328</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.007332698783806312</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.004764142504821769</v>
+        <v>0.004651042525091028</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0112652410080794</v>
+        <v>0.01096941968715254</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>30</v>
@@ -6865,19 +6865,19 @@
         <v>33753</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>22669</v>
+        <v>21897</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>46969</v>
+        <v>46921</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.009524127822313981</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.006396579641895886</v>
+        <v>0.006178677990384525</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0132531499998414</v>
+        <v>0.01323979255385409</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>53</v>
@@ -6886,19 +6886,19 @@
         <v>58706</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>45220</v>
+        <v>43465</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>78712</v>
+        <v>74914</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.008450663156899105</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006509454720327257</v>
+        <v>0.006256753563373774</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01133061807647511</v>
+        <v>0.01078378632040883</v>
       </c>
     </row>
     <row r="45">
@@ -7232,19 +7232,19 @@
         <v>234777</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215145</v>
+        <v>212930</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>257267</v>
+        <v>258157</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5482531544512521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5024083452478828</v>
+        <v>0.4972368252278909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6007729238808883</v>
+        <v>0.6028511003231788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>194</v>
@@ -7253,19 +7253,19 @@
         <v>199954</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181524</v>
+        <v>181822</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>218394</v>
+        <v>219510</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5794469083138216</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.526037930526841</v>
+        <v>0.5269022688009073</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6328846481735574</v>
+        <v>0.636117718196641</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>411</v>
@@ -7274,19 +7274,19 @@
         <v>434731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>406726</v>
+        <v>406709</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>464454</v>
+        <v>462433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.562172973720515</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5259590373463677</v>
+        <v>0.5259370488278656</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6006092540912878</v>
+        <v>0.5979963467077539</v>
       </c>
     </row>
     <row r="5">
@@ -7303,19 +7303,19 @@
         <v>137186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117710</v>
+        <v>116532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156287</v>
+        <v>159216</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3203589767346337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2748784956100596</v>
+        <v>0.2721271180113869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.364961928989324</v>
+        <v>0.3718022670743634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>98</v>
@@ -7324,19 +7324,19 @@
         <v>105703</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>87795</v>
+        <v>89004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>125685</v>
+        <v>123357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3063173197197889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2544214686867394</v>
+        <v>0.2579254357086906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3642228145572546</v>
+        <v>0.3574777031504802</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>227</v>
@@ -7345,19 +7345,19 @@
         <v>242889</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>217154</v>
+        <v>216960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>271439</v>
+        <v>271542</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3140930643744623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2808128858821329</v>
+        <v>0.2805629353469735</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3510126117745024</v>
+        <v>0.3511452969045245</v>
       </c>
     </row>
     <row r="6">
@@ -7374,19 +7374,19 @@
         <v>50010</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36283</v>
+        <v>36285</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66096</v>
+        <v>65669</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1167849425525226</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08472868607578218</v>
+        <v>0.08473405980545179</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1543490839001501</v>
+        <v>0.1533506415010602</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -7395,19 +7395,19 @@
         <v>34298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24632</v>
+        <v>25170</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46766</v>
+        <v>47606</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09939207833968582</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07138003193140242</v>
+        <v>0.07294084644324719</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1355229073888218</v>
+        <v>0.13795749106133</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>76</v>
@@ -7416,19 +7416,19 @@
         <v>84308</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66118</v>
+        <v>68734</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101755</v>
+        <v>105267</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1090235962431248</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08550110206569511</v>
+        <v>0.08888343918934034</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.131585196792541</v>
+        <v>0.1361268932706386</v>
       </c>
     </row>
     <row r="7">
@@ -7445,19 +7445,19 @@
         <v>3014</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8015</v>
+        <v>8088</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007038812146462983</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002130302953865765</v>
+        <v>0.002132799019697364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01871563746123094</v>
+        <v>0.01888826870610006</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -7466,19 +7466,19 @@
         <v>5122</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1988</v>
+        <v>1959</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11639</v>
+        <v>11408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01484369362670359</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005761057213960119</v>
+        <v>0.005675874620854021</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03372915634517179</v>
+        <v>0.0330599606642177</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -7487,19 +7487,19 @@
         <v>8136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3751</v>
+        <v>3929</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15444</v>
+        <v>15352</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01052164207778877</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004850532121992888</v>
+        <v>0.005080921212355795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01997134417841822</v>
+        <v>0.01985277305962546</v>
       </c>
     </row>
     <row r="8">
@@ -7516,19 +7516,19 @@
         <v>3239</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8911</v>
+        <v>8944</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007564114115128559</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002333007939814679</v>
+        <v>0.002347677493948004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02080857839632011</v>
+        <v>0.02088644777956304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -7550,19 +7550,19 @@
         <v>3239</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8857</v>
+        <v>8972</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004188723584109059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001302904811630733</v>
+        <v>0.001297509206905559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01145370008069699</v>
+        <v>0.01160249688633199</v>
       </c>
     </row>
     <row r="9">
@@ -7654,19 +7654,19 @@
         <v>225240</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>206112</v>
+        <v>207035</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244694</v>
+        <v>245321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6019925411230601</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5508715602154233</v>
+        <v>0.553337966610237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.653987450810943</v>
+        <v>0.6556626961317586</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>207</v>
@@ -7675,19 +7675,19 @@
         <v>217646</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196823</v>
+        <v>198009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>235457</v>
+        <v>235977</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5862859618916001</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5301940239629459</v>
+        <v>0.533389156579505</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.63426450781791</v>
+        <v>0.635666543757384</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>422</v>
@@ -7696,19 +7696,19 @@
         <v>442885</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>416053</v>
+        <v>414823</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>468219</v>
+        <v>471121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5941701184677517</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5581719872348302</v>
+        <v>0.5565212458447698</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.628157502483109</v>
+        <v>0.6320505601828087</v>
       </c>
     </row>
     <row r="11">
@@ -7725,19 +7725,19 @@
         <v>102939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84651</v>
+        <v>84022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>120474</v>
+        <v>121413</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.275122803793881</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2262450941173634</v>
+        <v>0.2245645536652416</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3219881568449823</v>
+        <v>0.3244961602106018</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>106</v>
@@ -7746,19 +7746,19 @@
         <v>110959</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93788</v>
+        <v>95483</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129596</v>
+        <v>131157</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2988977965287228</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2526432204211082</v>
+        <v>0.2572080612715616</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3491011172743747</v>
+        <v>0.3533050770521781</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>199</v>
@@ -7767,19 +7767,19 @@
         <v>213898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>189590</v>
+        <v>189087</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>237692</v>
+        <v>239652</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2869635769538514</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2543516107292792</v>
+        <v>0.2536765839654692</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3188854543240229</v>
+        <v>0.3215150347865908</v>
       </c>
     </row>
     <row r="12">
@@ -7796,19 +7796,19 @@
         <v>39980</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28586</v>
+        <v>29204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53581</v>
+        <v>53252</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1068534636825534</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07639985571906131</v>
+        <v>0.07805147550081656</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1432054674210739</v>
+        <v>0.1423263397376444</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -7817,19 +7817,19 @@
         <v>38639</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27552</v>
+        <v>26816</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53288</v>
+        <v>51688</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1040833665908821</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07421822552729213</v>
+        <v>0.07223606005688932</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1435439143429818</v>
+        <v>0.1392365163047227</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -7838,19 +7838,19 @@
         <v>78619</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62046</v>
+        <v>61723</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>96401</v>
+        <v>97110</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1054738590004664</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08324064632662988</v>
+        <v>0.08280749001936728</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1293307552049113</v>
+        <v>0.130281542564376</v>
       </c>
     </row>
     <row r="13">
@@ -7867,19 +7867,19 @@
         <v>2820</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7578</v>
+        <v>7637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00753585180597824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002435250359162474</v>
+        <v>0.002451455050252397</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02025398019297421</v>
+        <v>0.02041008938320961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7888,19 +7888,19 @@
         <v>3984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9876</v>
+        <v>9819</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01073287498879494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002583358986826193</v>
+        <v>0.002587107074788887</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02660362593052992</v>
+        <v>0.02645008480349592</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -7909,19 +7909,19 @@
         <v>6804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2906</v>
+        <v>2849</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13817</v>
+        <v>13489</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009128080527858058</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003899077559970663</v>
+        <v>0.00382163978525512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01853625234325014</v>
+        <v>0.01809631723839598</v>
       </c>
     </row>
     <row r="14">
@@ -7938,19 +7938,19 @@
         <v>3179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8441</v>
+        <v>9191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008495339594527156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002617055326242018</v>
+        <v>0.002611401948032824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02255940470371909</v>
+        <v>0.0245656881739337</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7972,19 +7972,19 @@
         <v>3179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8775</v>
+        <v>8925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00426436505007246</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001322276259963793</v>
+        <v>0.001324722066653259</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01177249321358201</v>
+        <v>0.01197344939925124</v>
       </c>
     </row>
     <row r="15">
@@ -8076,19 +8076,19 @@
         <v>249699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226913</v>
+        <v>226924</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>274943</v>
+        <v>271996</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4784288181108761</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4347715929047481</v>
+        <v>0.4347918399882</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5267971654052873</v>
+        <v>0.5211503980927192</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -8097,19 +8097,19 @@
         <v>68181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55481</v>
+        <v>55363</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82554</v>
+        <v>81126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4168561549887765</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3392072806756616</v>
+        <v>0.3384874679843762</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5047307684883948</v>
+        <v>0.4959988063435471</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>305</v>
@@ -8118,19 +8118,19 @@
         <v>317880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>290156</v>
+        <v>292365</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>344494</v>
+        <v>344905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4637370169191946</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4232929869824447</v>
+        <v>0.4265150593712544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5025633193142777</v>
+        <v>0.5031622554011672</v>
       </c>
     </row>
     <row r="17">
@@ -8147,19 +8147,19 @@
         <v>172293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150637</v>
+        <v>152744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194678</v>
+        <v>194312</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3301166690825037</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2886241034798552</v>
+        <v>0.2926621648008701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3730071627760637</v>
+        <v>0.3723067077675722</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -8168,19 +8168,19 @@
         <v>53134</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41602</v>
+        <v>41284</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65695</v>
+        <v>65774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3248619741237175</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2543560630346845</v>
+        <v>0.2524071933359996</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4016567112089309</v>
+        <v>0.4021418718030383</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>218</v>
@@ -8189,19 +8189,19 @@
         <v>225427</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>200146</v>
+        <v>199916</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>251012</v>
+        <v>250391</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3288628507523735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2919812263237572</v>
+        <v>0.2916465743953146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3661880666416855</v>
+        <v>0.3652811443743949</v>
       </c>
     </row>
     <row r="18">
@@ -8218,19 +8218,19 @@
         <v>81373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>65936</v>
+        <v>65429</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>98758</v>
+        <v>99423</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1559126421458337</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1263349701193127</v>
+        <v>0.1253634752555493</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1892220461818512</v>
+        <v>0.1904970817070093</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -8239,19 +8239,19 @@
         <v>30277</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21082</v>
+        <v>20650</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42758</v>
+        <v>41694</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1851096422022153</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1288931336571472</v>
+        <v>0.1262532227439257</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2614181398984971</v>
+        <v>0.2549182107811205</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -8260,19 +8260,19 @@
         <v>111650</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92065</v>
+        <v>92330</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>133446</v>
+        <v>134737</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1628793136924459</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1343087679900254</v>
+        <v>0.1346950762820521</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1946775228999767</v>
+        <v>0.1965606022573803</v>
       </c>
     </row>
     <row r="19">
@@ -8289,19 +8289,19 @@
         <v>15738</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8500</v>
+        <v>9179</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27999</v>
+        <v>25822</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03015399620270724</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01628708514063553</v>
+        <v>0.01758735616370219</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05364621746489328</v>
+        <v>0.04947622979274293</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -8310,19 +8310,19 @@
         <v>8078</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3037</v>
+        <v>2974</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17350</v>
+        <v>17236</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04938825039530962</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0185688246262239</v>
+        <v>0.01818368434315396</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1060754458696439</v>
+        <v>0.1053812381562762</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -8331,19 +8331,19 @@
         <v>23816</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15052</v>
+        <v>14036</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36523</v>
+        <v>37732</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03474346536546877</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02195808603958774</v>
+        <v>0.02047675446712649</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05328152675195912</v>
+        <v>0.05504461905651357</v>
       </c>
     </row>
     <row r="20">
@@ -8360,19 +8360,19 @@
         <v>2812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7652</v>
+        <v>7962</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005387874458079242</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001580129334163271</v>
+        <v>0.001588888641291694</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01466142233215967</v>
+        <v>0.01525464322493826</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -8381,19 +8381,19 @@
         <v>3890</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10766</v>
+        <v>10035</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02378397828998105</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006730774606304278</v>
+        <v>0.006740961411273079</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06582252120395984</v>
+        <v>0.06135237546192222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -8402,19 +8402,19 @@
         <v>6702</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2668</v>
+        <v>2434</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14534</v>
+        <v>13897</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009777353270517122</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00389218659983193</v>
+        <v>0.003551186920140875</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02120322421617326</v>
+        <v>0.02027348558165658</v>
       </c>
     </row>
     <row r="21">
@@ -8506,19 +8506,19 @@
         <v>548079</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>513383</v>
+        <v>512340</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>583903</v>
+        <v>581856</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4779866453486972</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4477282845248553</v>
+        <v>0.4468182834597393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5092293907679364</v>
+        <v>0.50744424020908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>401</v>
@@ -8527,19 +8527,19 @@
         <v>410117</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>381006</v>
+        <v>383248</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>437478</v>
+        <v>439851</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4975831625096275</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4622632819619696</v>
+        <v>0.4649833332585999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5307790191516775</v>
+        <v>0.5336579660974652</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>927</v>
@@ -8548,19 +8548,19 @@
         <v>958196</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>913639</v>
+        <v>909936</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1003938</v>
+        <v>998861</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.486181965563136</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4635739961402744</v>
+        <v>0.4616949929152291</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5093911005593924</v>
+        <v>0.5068150912611284</v>
       </c>
     </row>
     <row r="23">
@@ -8577,19 +8577,19 @@
         <v>380316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>348973</v>
+        <v>349316</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>410162</v>
+        <v>410038</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3316782633309797</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3043440095416042</v>
+        <v>0.3046428850691504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3577074542278674</v>
+        <v>0.3575993165200369</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>255</v>
@@ -8598,19 +8598,19 @@
         <v>265658</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>237097</v>
+        <v>238811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>291261</v>
+        <v>294483</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3223153249276706</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2876631567572085</v>
+        <v>0.2897424439850684</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3533786176705873</v>
+        <v>0.3572872215377342</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>619</v>
@@ -8619,19 +8619,19 @@
         <v>645974</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>605015</v>
+        <v>606417</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>691680</v>
+        <v>687726</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3277626553822282</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3069801952984504</v>
+        <v>0.3076918336967389</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3509536750669257</v>
+        <v>0.3489475620310553</v>
       </c>
     </row>
     <row r="24">
@@ -8648,19 +8648,19 @@
         <v>195782</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>169806</v>
+        <v>170344</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>221705</v>
+        <v>223190</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1707440371471483</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1480903653629144</v>
+        <v>0.1485591089996083</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.193352054211097</v>
+        <v>0.1946467851434841</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>124</v>
@@ -8669,19 +8669,19 @@
         <v>130001</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111498</v>
+        <v>109735</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>152301</v>
+        <v>151012</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.157726100671903</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.135277273271377</v>
+        <v>0.1331383863568779</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1847818257992273</v>
+        <v>0.1832185474975614</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>312</v>
@@ -8690,19 +8690,19 @@
         <v>325783</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>292613</v>
+        <v>296799</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>358590</v>
+        <v>364353</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1652998984224081</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1484699569482097</v>
+        <v>0.1505937291501885</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1819458293071875</v>
+        <v>0.1848702189108012</v>
       </c>
     </row>
     <row r="25">
@@ -8719,19 +8719,19 @@
         <v>18719</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11906</v>
+        <v>11811</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28872</v>
+        <v>30058</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01632497879563884</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01038308425578516</v>
+        <v>0.01030071554505842</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02517990252756649</v>
+        <v>0.02621430883572987</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -8740,19 +8740,19 @@
         <v>13330</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7673</v>
+        <v>7830</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23640</v>
+        <v>23339</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01617333498574713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009308885537027623</v>
+        <v>0.009499454481899804</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02868176739284996</v>
+        <v>0.02831601896582255</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -8761,19 +8761,19 @@
         <v>32049</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22035</v>
+        <v>21642</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44491</v>
+        <v>44532</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01626156091528826</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01118060399099837</v>
+        <v>0.01098099818991995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02257448835939771</v>
+        <v>0.02259528895837659</v>
       </c>
     </row>
     <row r="26">
@@ -8790,19 +8790,19 @@
         <v>3745</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10618</v>
+        <v>9775</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003266075377535885</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0009039222085366495</v>
+        <v>0.0009001163363009748</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.009260099529250563</v>
+        <v>0.008524822790627953</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -8811,19 +8811,19 @@
         <v>5112</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1953</v>
+        <v>1861</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11506</v>
+        <v>11318</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006202076905051698</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00236912450619413</v>
+        <v>0.002258206272115094</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01396041393049376</v>
+        <v>0.0137317644301244</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -8832,19 +8832,19 @@
         <v>8857</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16442</v>
+        <v>17257</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004493919716939476</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002125914269683828</v>
+        <v>0.00212564184519386</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008342750131426133</v>
+        <v>0.008755855436008916</v>
       </c>
     </row>
     <row r="27">
@@ -8936,19 +8936,19 @@
         <v>294868</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>268665</v>
+        <v>270272</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>320148</v>
+        <v>320088</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4790667048722176</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4364953040500587</v>
+        <v>0.4391053680856609</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.520138494339264</v>
+        <v>0.5200406737905624</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>338</v>
@@ -8957,19 +8957,19 @@
         <v>353444</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>320991</v>
+        <v>325873</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>378830</v>
+        <v>382616</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4795223227753365</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4354932423562728</v>
+        <v>0.4421165198192799</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5139635419037593</v>
+        <v>0.5191006110579475</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>617</v>
@@ -8978,19 +8978,19 @@
         <v>648312</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>611339</v>
+        <v>612060</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>685399</v>
+        <v>685852</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4793149892566592</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4519795377860464</v>
+        <v>0.4525125893788738</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5067341750780787</v>
+        <v>0.5070694331741846</v>
       </c>
     </row>
     <row r="29">
@@ -9007,19 +9007,19 @@
         <v>185472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>160753</v>
+        <v>165004</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>207834</v>
+        <v>209084</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3013321714601059</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2611723677806138</v>
+        <v>0.2680782144081852</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3376644152486425</v>
+        <v>0.3396937092522565</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>228</v>
@@ -9028,19 +9028,19 @@
         <v>243396</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>217420</v>
+        <v>217919</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>268827</v>
+        <v>268082</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3302186293426344</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2949773670085297</v>
+        <v>0.2956537270598794</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.364721837503686</v>
+        <v>0.3637102043307827</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>411</v>
@@ -9049,19 +9049,19 @@
         <v>428868</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>392258</v>
+        <v>394120</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>464343</v>
+        <v>459479</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3170735555562255</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2900068861113733</v>
+        <v>0.2913835589663422</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3433011485966044</v>
+        <v>0.3397056965464265</v>
       </c>
     </row>
     <row r="30">
@@ -9078,19 +9078,19 @@
         <v>107967</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>90622</v>
+        <v>88144</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>127624</v>
+        <v>128004</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.175411305346432</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1472318186076874</v>
+        <v>0.1432058926027011</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2073473714491677</v>
+        <v>0.2079658278900465</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>100</v>
@@ -9099,19 +9099,19 @@
         <v>104250</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86675</v>
+        <v>87219</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>123849</v>
+        <v>125159</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1414377316705375</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1175928938521376</v>
+        <v>0.1183311428949551</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1680277949100157</v>
+        <v>0.1698054331600039</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>204</v>
@@ -9120,19 +9120,19 @@
         <v>212217</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>183907</v>
+        <v>186920</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>238256</v>
+        <v>239582</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1568977487682982</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1359673044840728</v>
+        <v>0.1381950639874613</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1761491867012824</v>
+        <v>0.1771297595411052</v>
       </c>
     </row>
     <row r="31">
@@ -9149,19 +9149,19 @@
         <v>22154</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14131</v>
+        <v>14177</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34091</v>
+        <v>32185</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03599393254354375</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02295754654116386</v>
+        <v>0.02303344102383045</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05538634886764209</v>
+        <v>0.05229023165879326</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -9170,19 +9170,19 @@
         <v>30969</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20389</v>
+        <v>21448</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>43776</v>
+        <v>45071</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04201577407570722</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02766165778098943</v>
+        <v>0.02909945072266628</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05939112493639342</v>
+        <v>0.06114817129773725</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>50</v>
@@ -9191,19 +9191,19 @@
         <v>53123</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39168</v>
+        <v>40750</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>71191</v>
+        <v>71263</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03927547439645067</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0289576914381912</v>
+        <v>0.03012736360660324</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05263372755368336</v>
+        <v>0.05268657339025853</v>
       </c>
     </row>
     <row r="32">
@@ -9220,19 +9220,19 @@
         <v>5045</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10801</v>
+        <v>10380</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008195885777700774</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003048393845078583</v>
+        <v>0.003060171797693874</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01754888742548765</v>
+        <v>0.01686474232836075</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -9241,19 +9241,19 @@
         <v>5016</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1101</v>
+        <v>1815</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12250</v>
+        <v>11798</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006805542135784373</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001493545298685357</v>
+        <v>0.002462122662208802</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01662009222498523</v>
+        <v>0.01600611820219734</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -9262,19 +9262,19 @@
         <v>10061</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4914</v>
+        <v>4804</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18963</v>
+        <v>18497</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007438232022366474</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003633207133626006</v>
+        <v>0.003551499602285248</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01401978485403422</v>
+        <v>0.01367511436966284</v>
       </c>
     </row>
     <row r="33">
@@ -9366,19 +9366,19 @@
         <v>148779</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>131839</v>
+        <v>131595</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>165169</v>
+        <v>166320</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5181323855281756</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4591356689394333</v>
+        <v>0.4582884118945491</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5752125731766834</v>
+        <v>0.5792185454323837</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>465</v>
@@ -9387,19 +9387,19 @@
         <v>498492</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>466754</v>
+        <v>464920</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>533712</v>
+        <v>530436</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.462555024345296</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4331043338913269</v>
+        <v>0.4314030934171611</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.495235278848898</v>
+        <v>0.4921958645203986</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>607</v>
@@ -9408,19 +9408,19 @@
         <v>647272</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>605413</v>
+        <v>610352</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>682653</v>
+        <v>686970</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4742478121429863</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4435779778791991</v>
+        <v>0.447196743189561</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5001710914407984</v>
+        <v>0.5033338854227192</v>
       </c>
     </row>
     <row r="35">
@@ -9437,19 +9437,19 @@
         <v>96322</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>81062</v>
+        <v>79972</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>113632</v>
+        <v>112325</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.335447318508909</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2823042893415526</v>
+        <v>0.2785064725478322</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3957310320400469</v>
+        <v>0.3911783839390847</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>332</v>
@@ -9458,19 +9458,19 @@
         <v>361696</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>328331</v>
+        <v>332287</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>392573</v>
+        <v>394340</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3356207968158016</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3046611543017441</v>
+        <v>0.3083320514224969</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3642711968363704</v>
+        <v>0.3659114024696973</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>424</v>
@@ -9479,19 +9479,19 @@
         <v>458019</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>425372</v>
+        <v>422208</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>499256</v>
+        <v>493263</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3355842991306502</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3116643425423429</v>
+        <v>0.3093466927632083</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3657986159991437</v>
+        <v>0.3614071104612586</v>
       </c>
     </row>
     <row r="36">
@@ -9508,19 +9508,19 @@
         <v>38803</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27591</v>
+        <v>27261</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>52679</v>
+        <v>52657</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1351351128107397</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09608698784267747</v>
+        <v>0.09493665625590517</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1834575221356519</v>
+        <v>0.1833807197378717</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>164</v>
@@ -9529,19 +9529,19 @@
         <v>187652</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>162736</v>
+        <v>162696</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>218622</v>
+        <v>215792</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1741236302597224</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1510040134933381</v>
+        <v>0.1509667351352056</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2028609249533015</v>
+        <v>0.2002349882881544</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>199</v>
@@ -9550,19 +9550,19 @@
         <v>226455</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>198031</v>
+        <v>199865</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>257362</v>
+        <v>257352</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1659209295309599</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1450951078955602</v>
+        <v>0.1464388299556064</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.188565688116456</v>
+        <v>0.1885587282469156</v>
       </c>
     </row>
     <row r="37">
@@ -9579,19 +9579,19 @@
         <v>3240</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9625</v>
+        <v>9773</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01128518315217576</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003312507581878555</v>
+        <v>0.003315713846798338</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03351852531325658</v>
+        <v>0.03403673368846445</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -9600,19 +9600,19 @@
         <v>21952</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13840</v>
+        <v>13941</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>33478</v>
+        <v>33300</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02036951084568158</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01284212503133539</v>
+        <v>0.01293620245282255</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03106434834540111</v>
+        <v>0.03089941682976982</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -9621,19 +9621,19 @@
         <v>25193</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>16706</v>
+        <v>16290</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>36896</v>
+        <v>37951</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01845828091781004</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0122403829223622</v>
+        <v>0.01193517283540349</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02703346230909828</v>
+        <v>0.0278061950131424</v>
       </c>
     </row>
     <row r="38">
@@ -9663,19 +9663,19 @@
         <v>7901</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3413</v>
+        <v>3152</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16631</v>
+        <v>15795</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.007331037733498416</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003166804853490852</v>
+        <v>0.002924389991289578</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01543161983256876</v>
+        <v>0.01465626138481859</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7</v>
@@ -9684,19 +9684,19 @@
         <v>7901</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3537</v>
+        <v>3281</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15850</v>
+        <v>14815</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005788678277593487</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002591545007132582</v>
+        <v>0.002403857834856103</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01161303316783105</v>
+        <v>0.01085486819736188</v>
       </c>
     </row>
     <row r="39">
@@ -9788,19 +9788,19 @@
         <v>1701441</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1647798</v>
+        <v>1645402</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1762577</v>
+        <v>1763940</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5043416533749122</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4884407495154103</v>
+        <v>0.4877303025767224</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.522463494926191</v>
+        <v>0.5228675299231764</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1669</v>
@@ -9809,19 +9809,19 @@
         <v>1747835</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1687502</v>
+        <v>1688077</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1810963</v>
+        <v>1808179</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.496705810612887</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4795602201125148</v>
+        <v>0.4797237327193742</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.514645854986973</v>
+        <v>0.5138546197879978</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3289</v>
@@ -9830,19 +9830,19 @@
         <v>3449276</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3363836</v>
+        <v>3367398</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3539054</v>
+        <v>3534970</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.500443265897626</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.4880470462417737</v>
+        <v>0.4885637942212442</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5134688648918349</v>
+        <v>0.5128763410208194</v>
       </c>
     </row>
     <row r="41">
@@ -9859,19 +9859,19 @@
         <v>1074527</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1019172</v>
+        <v>1022094</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1127108</v>
+        <v>1128168</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3185116282002682</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3021030997273175</v>
+        <v>0.3029694720723787</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3340976715796591</v>
+        <v>0.3344119109082066</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1070</v>
@@ -9880,19 +9880,19 @@
         <v>1140548</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1079594</v>
+        <v>1088455</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1197792</v>
+        <v>1199476</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3241248056502807</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.306802728748741</v>
+        <v>0.309321019870778</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3403927720868586</v>
+        <v>0.3408712419496587</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2098</v>
@@ -9901,19 +9901,19 @@
         <v>2215075</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2134693</v>
+        <v>2138191</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2292933</v>
+        <v>2287384</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3213773682843543</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3097149904226775</v>
+        <v>0.3102225354191009</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3326735664199452</v>
+        <v>0.3318684837735427</v>
       </c>
     </row>
     <row r="42">
@@ -9930,19 +9930,19 @@
         <v>513915</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>471386</v>
+        <v>470912</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>555796</v>
+        <v>558469</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1523349228814601</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1397284759597299</v>
+        <v>0.1395878857860776</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1647493083502991</v>
+        <v>0.1655413955062622</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>482</v>
@@ -9951,19 +9951,19 @@
         <v>525116</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>486808</v>
+        <v>483532</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>566744</v>
+        <v>569992</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1492293544852912</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.138342800816313</v>
+        <v>0.1374118868211761</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1610592082147953</v>
+        <v>0.1619822031604524</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>968</v>
@@ -9972,19 +9972,19 @@
         <v>1039032</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>981705</v>
+        <v>975859</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1102569</v>
+        <v>1098147</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1507494123723006</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1424320557632609</v>
+        <v>0.14158398426176</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1599678957002422</v>
+        <v>0.1593262757649636</v>
       </c>
     </row>
     <row r="43">
@@ -10001,19 +10001,19 @@
         <v>65685</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>51126</v>
+        <v>49787</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>83760</v>
+        <v>83422</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01947048543774638</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01515474119656192</v>
+        <v>0.01475780494350167</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02482829407060742</v>
+        <v>0.02472785060436944</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>75</v>
@@ -10022,19 +10022,19 @@
         <v>83436</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>65486</v>
+        <v>65236</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>102236</v>
+        <v>103041</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02371106968777452</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0186099164027488</v>
+        <v>0.01853898994323646</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02905388246189434</v>
+        <v>0.02928263246357818</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>138</v>
@@ -10043,19 +10043,19 @@
         <v>149121</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>126379</v>
+        <v>126672</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>174924</v>
+        <v>176056</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02163546460925334</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0183359329925046</v>
+        <v>0.01837836647026655</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02537916818467319</v>
+        <v>0.02554332430572994</v>
       </c>
     </row>
     <row r="44">
@@ -10072,19 +10072,19 @@
         <v>18019</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11118</v>
+        <v>10583</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>29395</v>
+        <v>29488</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005341310105613065</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003295477471979183</v>
+        <v>0.003136966096062534</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.008713153527642004</v>
+        <v>0.008740800562875833</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>19</v>
@@ -10093,19 +10093,19 @@
         <v>21919</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>13277</v>
+        <v>13801</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>34142</v>
+        <v>33250</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0062289595637665</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.003773208135961036</v>
+        <v>0.003922007150379503</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.00970262383102876</v>
+        <v>0.009449016649618076</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>36</v>
@@ -10114,19 +10114,19 @@
         <v>39938</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>28226</v>
+        <v>27921</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>56370</v>
+        <v>55091</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.005794488836465748</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004095188829800226</v>
+        <v>0.004050910534856057</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.008178540532614785</v>
+        <v>0.007992910423503072</v>
       </c>
     </row>
     <row r="45">
@@ -10460,19 +10460,19 @@
         <v>370701</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>348854</v>
+        <v>347477</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>393539</v>
+        <v>393079</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6787909825421496</v>
+        <v>0.6787909825421494</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6387862310868593</v>
+        <v>0.6362649497862057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.720609570767015</v>
+        <v>0.7197661908773139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>492</v>
@@ -10481,19 +10481,19 @@
         <v>355497</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>336329</v>
+        <v>337897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>370749</v>
+        <v>372498</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.732099628242215</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6926263603545471</v>
+        <v>0.6958555240558308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7635099161395928</v>
+        <v>0.7671126505051227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>865</v>
@@ -10502,19 +10502,19 @@
         <v>726198</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>694907</v>
+        <v>695680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>752401</v>
+        <v>754576</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7038813779643603</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6735517240346438</v>
+        <v>0.6743017604214926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7292796120299205</v>
+        <v>0.7313871864355495</v>
       </c>
     </row>
     <row r="5">
@@ -10531,19 +10531,19 @@
         <v>132161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111989</v>
+        <v>112421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151921</v>
+        <v>153365</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2420007465145907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2050635686475945</v>
+        <v>0.2058536532902372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2781827503562163</v>
+        <v>0.2808270703306389</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>155</v>
@@ -10552,19 +10552,19 @@
         <v>106694</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92808</v>
+        <v>91218</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>124711</v>
+        <v>122802</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2197218297101654</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1911258556133193</v>
+        <v>0.1878519124476614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2568257560500288</v>
+        <v>0.2528941686449152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>290</v>
@@ -10573,19 +10573,19 @@
         <v>238855</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>213688</v>
+        <v>214564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>266144</v>
+        <v>266405</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2315148895797393</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2071208130096303</v>
+        <v>0.2079698488420461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2579652538883053</v>
+        <v>0.2582182621073444</v>
       </c>
     </row>
     <row r="6">
@@ -10602,19 +10602,19 @@
         <v>27008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17334</v>
+        <v>17548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39437</v>
+        <v>40853</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04945507225342792</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03173965672211215</v>
+        <v>0.03213183161897981</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07221307650158025</v>
+        <v>0.07480653078851167</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -10623,19 +10623,19 @@
         <v>15968</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10398</v>
+        <v>10868</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24388</v>
+        <v>24705</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0328846286403407</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02141272692544961</v>
+        <v>0.02238122032315566</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05022409659549819</v>
+        <v>0.05087719239605067</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -10644,19 +10644,19 @@
         <v>42977</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31985</v>
+        <v>31622</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59636</v>
+        <v>58121</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.04165598118454162</v>
+        <v>0.04165598118454161</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03100168868132965</v>
+        <v>0.03064997709189893</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05780338316122302</v>
+        <v>0.05633448672620314</v>
       </c>
     </row>
     <row r="7">
@@ -10673,19 +10673,19 @@
         <v>13506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7601</v>
+        <v>7575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23456</v>
+        <v>23285</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02473100005506628</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01391768473275059</v>
+        <v>0.0138705127895248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04294936764376919</v>
+        <v>0.04263776963302432</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -10694,19 +10694,19 @@
         <v>4599</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1820</v>
+        <v>1906</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9347</v>
+        <v>9565</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.009471982489854506</v>
+        <v>0.009471982489854508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003748741838719931</v>
+        <v>0.003924896561072644</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01924913568179674</v>
+        <v>0.01969752968740287</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -10715,19 +10715,19 @@
         <v>18106</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11541</v>
+        <v>11479</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29340</v>
+        <v>28353</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01754914841659646</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01118662108674313</v>
+        <v>0.01112671504730657</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02843787738947754</v>
+        <v>0.02748194608735503</v>
       </c>
     </row>
     <row r="8">
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10004</v>
+        <v>9658</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005022198634765473</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01831798391978827</v>
+        <v>0.01768440784755867</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -10765,19 +10765,19 @@
         <v>2827</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>994</v>
+        <v>887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6717</v>
+        <v>6442</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005821930917424373</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002046072817393507</v>
+        <v>0.001825684921125092</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01383253155585113</v>
+        <v>0.01326583183295756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -10786,19 +10786,19 @@
         <v>5570</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2234</v>
+        <v>2332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11803</v>
+        <v>12717</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005398602854762275</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00216566186166675</v>
+        <v>0.002260043961090396</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01144061289896532</v>
+        <v>0.01232581449042458</v>
       </c>
     </row>
     <row r="9">
@@ -10890,19 +10890,19 @@
         <v>305200</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>285005</v>
+        <v>281731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>329315</v>
+        <v>326515</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.631607318256891</v>
+        <v>0.6316073182568911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5898134616409763</v>
+        <v>0.5830377449419429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6815132393007909</v>
+        <v>0.6757178866823175</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>378</v>
@@ -10911,19 +10911,19 @@
         <v>276095</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>258232</v>
+        <v>258701</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>292904</v>
+        <v>292531</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.655055120071047</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6126754645141252</v>
+        <v>0.6137874519268993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6949365449727993</v>
+        <v>0.6940522296188737</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>672</v>
@@ -10932,19 +10932,19 @@
         <v>581295</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>552225</v>
+        <v>553640</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>605868</v>
+        <v>607430</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6425312811072242</v>
+        <v>0.6425312811072244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6103990765760714</v>
+        <v>0.611963167457418</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6696931574209135</v>
+        <v>0.671419284319214</v>
       </c>
     </row>
     <row r="11">
@@ -10961,19 +10961,19 @@
         <v>133089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>115047</v>
+        <v>115152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>154883</v>
+        <v>155477</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2754260631157419</v>
+        <v>0.2754260631157418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2380890572092551</v>
+        <v>0.2383063330683644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3205271278198112</v>
+        <v>0.321757611402831</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -10982,19 +10982,19 @@
         <v>107227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91592</v>
+        <v>92749</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>122352</v>
+        <v>122925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2544045769564237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2173087431726808</v>
+        <v>0.2200532527516931</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2902886135236297</v>
+        <v>0.2916492112596958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>296</v>
@@ -11003,19 +11003,19 @@
         <v>240316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>216578</v>
+        <v>215878</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>266619</v>
+        <v>265211</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2656324826478045</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2393930149529424</v>
+        <v>0.2386191997782968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2947060418089121</v>
+        <v>0.2931498897566386</v>
       </c>
     </row>
     <row r="12">
@@ -11032,19 +11032,19 @@
         <v>29570</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20886</v>
+        <v>20542</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40909</v>
+        <v>41393</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06119482312477679</v>
+        <v>0.06119482312477678</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04322352683315163</v>
+        <v>0.04251183042491062</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0846597193095846</v>
+        <v>0.08566209758512569</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -11053,19 +11053,19 @@
         <v>25741</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18115</v>
+        <v>17859</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36816</v>
+        <v>36716</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06107155832982872</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0429781173581768</v>
+        <v>0.04237174756640915</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0873495139706441</v>
+        <v>0.0871105431452823</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -11074,19 +11074,19 @@
         <v>55311</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42929</v>
+        <v>42838</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70385</v>
+        <v>70130</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06113739599146003</v>
+        <v>0.06113739599146002</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04745137713983639</v>
+        <v>0.04735096542759311</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07779943012904005</v>
+        <v>0.07751806453946583</v>
       </c>
     </row>
     <row r="13">
@@ -11103,19 +11103,19 @@
         <v>11818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6062</v>
+        <v>5978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21957</v>
+        <v>23860</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02445720772520138</v>
+        <v>0.02445720772520139</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01254555121251657</v>
+        <v>0.01237121094069534</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04543912378957288</v>
+        <v>0.04937826166627808</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -11124,19 +11124,19 @@
         <v>7948</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4373</v>
+        <v>4536</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13516</v>
+        <v>12946</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01885618035005939</v>
+        <v>0.0188561803500594</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01037633214867017</v>
+        <v>0.01076176951781893</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0320679696858426</v>
+        <v>0.03071576677501852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -11145,19 +11145,19 @@
         <v>19766</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13559</v>
+        <v>13014</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32911</v>
+        <v>32343</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02184777697963737</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01498792051299157</v>
+        <v>0.01438522754350501</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03637826623879373</v>
+        <v>0.03575037341001164</v>
       </c>
     </row>
     <row r="14">
@@ -11174,19 +11174,19 @@
         <v>3534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9290</v>
+        <v>9997</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.007314587777388956</v>
+        <v>0.007314587777388955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001580490049221741</v>
+        <v>0.001790075069907626</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01922452797138032</v>
+        <v>0.02068844997361178</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -11195,19 +11195,19 @@
         <v>4473</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1955</v>
+        <v>1807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9061</v>
+        <v>8609</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01061256429264112</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004637380921224787</v>
+        <v>0.004286197789036343</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02149767982895185</v>
+        <v>0.02042645405838401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -11216,19 +11216,19 @@
         <v>8008</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4077</v>
+        <v>4222</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14857</v>
+        <v>15318</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.008851063273873904</v>
+        <v>0.008851063273873902</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00450622816578674</v>
+        <v>0.004666990770634385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0164222833111857</v>
+        <v>0.01693211306798305</v>
       </c>
     </row>
     <row r="15">
@@ -11320,19 +11320,19 @@
         <v>299840</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>279449</v>
+        <v>280184</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>319986</v>
+        <v>322897</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6369447993876789</v>
+        <v>0.636944799387679</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5936283888940949</v>
+        <v>0.5951883297740778</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6797401166309285</v>
+        <v>0.6859228768529885</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>178</v>
@@ -11341,19 +11341,19 @@
         <v>120524</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110205</v>
+        <v>108875</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130821</v>
+        <v>130702</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6451109786737205</v>
+        <v>0.6451109786737206</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5898798577122699</v>
+        <v>0.5827609538694949</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7002308017863416</v>
+        <v>0.6995898943520079</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>478</v>
@@ -11362,19 +11362,19 @@
         <v>420363</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>395054</v>
+        <v>396616</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>442822</v>
+        <v>444458</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6392649236256436</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6007757636400853</v>
+        <v>0.603151793887998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6734192998835369</v>
+        <v>0.6759062104443677</v>
       </c>
     </row>
     <row r="17">
@@ -11391,19 +11391,19 @@
         <v>111618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94227</v>
+        <v>93158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129892</v>
+        <v>131118</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.237108175853657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2001643486399734</v>
+        <v>0.197893499340873</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2759273909886114</v>
+        <v>0.2785303245187351</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -11412,19 +11412,19 @@
         <v>49539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39586</v>
+        <v>40037</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59465</v>
+        <v>59186</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2651606950385225</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2118864541624708</v>
+        <v>0.214302999013547</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3182920734877173</v>
+        <v>0.3167949073409587</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>204</v>
@@ -11433,19 +11433,19 @@
         <v>161157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>141952</v>
+        <v>141614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>183886</v>
+        <v>182777</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2450782837115662</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2158731422725159</v>
+        <v>0.2153590380272231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.279642871431856</v>
+        <v>0.2779565896275083</v>
       </c>
     </row>
     <row r="18">
@@ -11462,19 +11462,19 @@
         <v>41932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31296</v>
+        <v>31100</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56075</v>
+        <v>56190</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08907540775558118</v>
+        <v>0.08907540775558119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06648236688420929</v>
+        <v>0.06606571610132828</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.119118959401195</v>
+        <v>0.1193639729536597</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -11483,19 +11483,19 @@
         <v>11235</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7028</v>
+        <v>7356</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16769</v>
+        <v>17396</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06013800957158838</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03761579892798833</v>
+        <v>0.03937559778465784</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08975621351171055</v>
+        <v>0.09311543567172942</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -11504,19 +11504,19 @@
         <v>53167</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>40998</v>
+        <v>40557</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>67754</v>
+        <v>68595</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08085389356165743</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06234777963083565</v>
+        <v>0.06167633154368461</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1030360109596035</v>
+        <v>0.1043160361573301</v>
       </c>
     </row>
     <row r="19">
@@ -11533,19 +11533,19 @@
         <v>11891</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7050</v>
+        <v>6868</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19357</v>
+        <v>20220</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0252590996306423</v>
+        <v>0.02525909963064231</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01497572819261086</v>
+        <v>0.01459023868136231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04111931304205067</v>
+        <v>0.04295324791158268</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -11554,19 +11554,19 @@
         <v>2434</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6138</v>
+        <v>6331</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01302868473886819</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00308999891144547</v>
+        <v>0.003135289931864179</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03285403380595839</v>
+        <v>0.03388799052773828</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -11575,19 +11575,19 @@
         <v>14325</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8448</v>
+        <v>8598</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21841</v>
+        <v>22183</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02178426996589658</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01284750831675043</v>
+        <v>0.01307496170138071</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03321389016843487</v>
+        <v>0.03373392437888045</v>
       </c>
     </row>
     <row r="20">
@@ -11604,19 +11604,19 @@
         <v>5467</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2260</v>
+        <v>2165</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11866</v>
+        <v>12167</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01161251737244068</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004801580959778555</v>
+        <v>0.004598168718798621</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02520685174710635</v>
+        <v>0.02584688695749966</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -11625,19 +11625,19 @@
         <v>3094</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7525</v>
+        <v>7272</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.01656163197730035</v>
+        <v>0.01656163197730034</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004032483952207956</v>
+        <v>0.004026013242666886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04028068119849543</v>
+        <v>0.03892213378651767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -11646,19 +11646,19 @@
         <v>8561</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4225</v>
+        <v>4028</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14614</v>
+        <v>14902</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01301862913523617</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006425900409183714</v>
+        <v>0.006126163348599047</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02222353167691195</v>
+        <v>0.0226615399585295</v>
       </c>
     </row>
     <row r="21">
@@ -11750,19 +11750,19 @@
         <v>666759</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>629412</v>
+        <v>630639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>702320</v>
+        <v>705298</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5913307120565922</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5582085329839558</v>
+        <v>0.5592969115267978</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6228691570278703</v>
+        <v>0.6255097750397453</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>715</v>
@@ -11771,19 +11771,19 @@
         <v>521282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>493965</v>
+        <v>496224</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>543013</v>
+        <v>545546</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6097780371320907</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.577824384273661</v>
+        <v>0.5804666495870365</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6351992399854028</v>
+        <v>0.6381618661133995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1352</v>
@@ -11792,19 +11792,19 @@
         <v>1188041</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1140288</v>
+        <v>1145351</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1233073</v>
+        <v>1234818</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5992856476501148</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5751975393814943</v>
+        <v>0.5777512397139268</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6220008767946446</v>
+        <v>0.6228812239873948</v>
       </c>
     </row>
     <row r="23">
@@ -11821,19 +11821,19 @@
         <v>330808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>297606</v>
+        <v>297243</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>366371</v>
+        <v>365078</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2933846171166901</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2639385999455232</v>
+        <v>0.2636169663554187</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.324924382504742</v>
+        <v>0.3237776420102496</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>352</v>
@@ -11842,19 +11842,19 @@
         <v>226729</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>206644</v>
+        <v>205130</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>249910</v>
+        <v>248231</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.265220142891309</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2417257083041634</v>
+        <v>0.2399545643075781</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2923364513437909</v>
+        <v>0.2903722117442224</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>686</v>
@@ -11863,19 +11863,19 @@
         <v>557537</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>519388</v>
+        <v>518844</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>600837</v>
+        <v>593949</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2812394102874403</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2619956829230268</v>
+        <v>0.2617214452063679</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3030812785259095</v>
+        <v>0.299606826761266</v>
       </c>
     </row>
     <row r="24">
@@ -11892,19 +11892,19 @@
         <v>94023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78002</v>
+        <v>77543</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>114717</v>
+        <v>116277</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08338657302072228</v>
+        <v>0.08338657302072229</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0691778796863555</v>
+        <v>0.06877105576849189</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.101739759920741</v>
+        <v>0.1031231271724575</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>107</v>
@@ -11913,19 +11913,19 @@
         <v>75227</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61936</v>
+        <v>61946</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>89940</v>
+        <v>90417</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.087998264273873</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07245047683231057</v>
+        <v>0.07246183536995771</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.105208480559494</v>
+        <v>0.1057663200746065</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -11934,19 +11934,19 @@
         <v>169250</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>147245</v>
+        <v>147031</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>195701</v>
+        <v>196236</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08537524654091472</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07427501133135343</v>
+        <v>0.07416720200695379</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09871768488841838</v>
+        <v>0.09898783632190056</v>
       </c>
     </row>
     <row r="25">
@@ -11963,19 +11963,19 @@
         <v>23670</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15849</v>
+        <v>16163</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33483</v>
+        <v>34015</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02099236355111253</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01405599203323993</v>
+        <v>0.01433409582321391</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02969541886963477</v>
+        <v>0.03016685415914139</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>36</v>
@@ -11984,19 +11984,19 @@
         <v>24062</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17251</v>
+        <v>16675</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33000</v>
+        <v>32117</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02814659926687746</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02017954207777544</v>
+        <v>0.01950587912955729</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.038602053348179</v>
+        <v>0.03756940038697278</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -12005,19 +12005,19 @@
         <v>47732</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36732</v>
+        <v>37150</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61458</v>
+        <v>60715</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02407744413091856</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01852883159553947</v>
+        <v>0.01873984618350607</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03100150497350457</v>
+        <v>0.03062677647769015</v>
       </c>
     </row>
     <row r="26">
@@ -12034,19 +12034,19 @@
         <v>12297</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7036</v>
+        <v>6901</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20619</v>
+        <v>20315</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0109057342548829</v>
+        <v>0.01090573425488289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006240229209813293</v>
+        <v>0.006119915759238106</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0182861237085285</v>
+        <v>0.01801692687996921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -12055,19 +12055,19 @@
         <v>7572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3752</v>
+        <v>3845</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13111</v>
+        <v>13703</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008856956435849897</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004388734986959078</v>
+        <v>0.004497866159624506</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01533628263358947</v>
+        <v>0.01602889476130069</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>26</v>
@@ -12076,19 +12076,19 @@
         <v>19868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13126</v>
+        <v>13601</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>29075</v>
+        <v>29213</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01002225139061159</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006621018495863874</v>
+        <v>0.006860597934914349</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01466618207428905</v>
+        <v>0.01473599019191289</v>
       </c>
     </row>
     <row r="27">
@@ -12180,19 +12180,19 @@
         <v>285886</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>259415</v>
+        <v>261682</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>310993</v>
+        <v>311719</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5071407129824308</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4601817863511261</v>
+        <v>0.4642031999987808</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5516776675345999</v>
+        <v>0.5529652135530606</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>645</v>
@@ -12201,19 +12201,19 @@
         <v>427518</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>403520</v>
+        <v>405224</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>451708</v>
+        <v>452857</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5162266789476638</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4872488964210286</v>
+        <v>0.4893072493153258</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5454365770157136</v>
+        <v>0.5468235457531665</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>914</v>
@@ -12222,19 +12222,19 @@
         <v>713405</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>680865</v>
+        <v>678481</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>752747</v>
+        <v>748578</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.512546796538367</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4891688685687239</v>
+        <v>0.4874555130936613</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5408120647920323</v>
+        <v>0.5378168723042357</v>
       </c>
     </row>
     <row r="29">
@@ -12251,19 +12251,19 @@
         <v>141914</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>122228</v>
+        <v>119212</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>166866</v>
+        <v>164226</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2517449552776448</v>
+        <v>0.2517449552776447</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2168237891698894</v>
+        <v>0.2114731374037425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2960071124323969</v>
+        <v>0.291324119404448</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>384</v>
@@ -12272,19 +12272,19 @@
         <v>237171</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>215034</v>
+        <v>215431</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>257594</v>
+        <v>258580</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2863834371590345</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2596532593993656</v>
+        <v>0.2601320388336336</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3110445968166397</v>
+        <v>0.3122350248558838</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>528</v>
@@ -12293,19 +12293,19 @@
         <v>379085</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>349044</v>
+        <v>348112</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>409505</v>
+        <v>410091</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2723545996476663</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2507714052763296</v>
+        <v>0.2501018119151625</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2942098545352262</v>
+        <v>0.2946303239845323</v>
       </c>
     </row>
     <row r="30">
@@ -12322,19 +12322,19 @@
         <v>86567</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>69817</v>
+        <v>68915</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>107564</v>
+        <v>108135</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.153562960315201</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1238504929927421</v>
+        <v>0.122249242287872</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1908111584306461</v>
+        <v>0.191823003862194</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>157</v>
@@ -12343,19 +12343,19 @@
         <v>97437</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>83009</v>
+        <v>83753</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>113275</v>
+        <v>113754</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1176552306812672</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1002328279457645</v>
+        <v>0.1011321313916347</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1367796458534932</v>
+        <v>0.1373571116850999</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>237</v>
@@ -12364,19 +12364,19 @@
         <v>184004</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>159891</v>
+        <v>157952</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>208797</v>
+        <v>206900</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1321981227791812</v>
+        <v>0.1321981227791811</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1148737564621179</v>
+        <v>0.113481125750413</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1500108516915449</v>
+        <v>0.1486478517773094</v>
       </c>
     </row>
     <row r="31">
@@ -12393,19 +12393,19 @@
         <v>36819</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>26538</v>
+        <v>24858</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>55408</v>
+        <v>52882</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06531497244006766</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04707578368511914</v>
+        <v>0.04409584777872573</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09828993588437447</v>
+        <v>0.09380887195136246</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -12414,19 +12414,19 @@
         <v>42615</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>32773</v>
+        <v>33359</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54336</v>
+        <v>55134</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.0514575004615899</v>
+        <v>0.05145750046158989</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03957294014715335</v>
+        <v>0.04028115734456582</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06561026509218601</v>
+        <v>0.06657456622571305</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>104</v>
@@ -12435,19 +12435,19 @@
         <v>79435</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>63425</v>
+        <v>64073</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>100166</v>
+        <v>98631</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05706987756778319</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0455680764355705</v>
+        <v>0.04603369884851885</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07196463574551477</v>
+        <v>0.07086136030452016</v>
       </c>
     </row>
     <row r="32">
@@ -12464,19 +12464,19 @@
         <v>12535</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6528</v>
+        <v>6678</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>20795</v>
+        <v>21561</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02223639898465571</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01158078139234957</v>
+        <v>0.01184698611661176</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03688792481285775</v>
+        <v>0.03824771324800465</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -12485,19 +12485,19 @@
         <v>23418</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15205</v>
+        <v>15959</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35824</v>
+        <v>36999</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02827715275044442</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01836046876047154</v>
+        <v>0.01927014553294708</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04325734577017912</v>
+        <v>0.04467630647568892</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>45</v>
@@ -12506,19 +12506,19 @@
         <v>35953</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25729</v>
+        <v>25722</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>50552</v>
+        <v>51152</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02583060346700235</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01848525688791742</v>
+        <v>0.01848006344060967</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03631901263323253</v>
+        <v>0.03675030540575384</v>
       </c>
     </row>
     <row r="33">
@@ -12610,19 +12610,19 @@
         <v>186219</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>167033</v>
+        <v>166441</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>203679</v>
+        <v>202693</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7849801415666604</v>
+        <v>0.7849801415666603</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7041013776972841</v>
+        <v>0.7016083325740807</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.858580306192735</v>
+        <v>0.8544214487131319</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>613</v>
@@ -12631,19 +12631,19 @@
         <v>487675</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>461415</v>
+        <v>459625</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>514696</v>
+        <v>514883</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.5840064571158783</v>
+        <v>0.5840064571158784</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5525585428235273</v>
+        <v>0.5504160356294364</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6163646054680137</v>
+        <v>0.6165887811750226</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>695</v>
@@ -12652,19 +12652,19 @@
         <v>673894</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>641639</v>
+        <v>639019</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>707076</v>
+        <v>704556</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.6284692660408353</v>
+        <v>0.6284692660408352</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5983879808755334</v>
+        <v>0.5959449751458837</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6594141627190421</v>
+        <v>0.6570642105643241</v>
       </c>
     </row>
     <row r="35">
@@ -12681,19 +12681,19 @@
         <v>38700</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23838</v>
+        <v>23434</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>59857</v>
+        <v>58910</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1631327293436141</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1004876893134298</v>
+        <v>0.09878446257704059</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2523176385896082</v>
+        <v>0.2483257482236494</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>323</v>
@@ -12702,19 +12702,19 @@
         <v>215590</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>192828</v>
+        <v>193846</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>241422</v>
+        <v>239836</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2581759395534086</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2309172000268567</v>
+        <v>0.232136448260525</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2891108357877903</v>
+        <v>0.2872110264045661</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>343</v>
@@ -12723,19 +12723,19 @@
         <v>254290</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>225994</v>
+        <v>227788</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>283337</v>
+        <v>282858</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2371488677418874</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2107609101224865</v>
+        <v>0.2124336705419103</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2642383591879754</v>
+        <v>0.2637911124073319</v>
       </c>
     </row>
     <row r="36">
@@ -12752,19 +12752,19 @@
         <v>8044</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2423</v>
+        <v>2762</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20524</v>
+        <v>21625</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03390701801551292</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01021509484542731</v>
+        <v>0.01164267802077511</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08651537856425219</v>
+        <v>0.09115505548245503</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>132</v>
@@ -12773,19 +12773,19 @@
         <v>85409</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>71290</v>
+        <v>70630</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>103282</v>
+        <v>102656</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.102279420812999</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08537150861131403</v>
+        <v>0.08458215417174544</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1236834804085895</v>
+        <v>0.1229338397651264</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>137</v>
@@ -12794,19 +12794,19 @@
         <v>93452</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>77443</v>
+        <v>77011</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>115744</v>
+        <v>112428</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.08715291761118653</v>
+        <v>0.08715291761118651</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07222301945676385</v>
+        <v>0.07181956292454608</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1079422727378013</v>
+        <v>0.1048500249190638</v>
       </c>
     </row>
     <row r="37">
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3869</v>
+        <v>3811</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.004358199091829554</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01630966950816142</v>
+        <v>0.01606636583847897</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>61</v>
@@ -12844,19 +12844,19 @@
         <v>36741</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28499</v>
+        <v>28271</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>47389</v>
+        <v>45909</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.04399838012938272</v>
+        <v>0.04399838012938271</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03412846938253491</v>
+        <v>0.03385533815941503</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05675022075819186</v>
+        <v>0.05497769417809072</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>63</v>
@@ -12865,19 +12865,19 @@
         <v>37775</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>29040</v>
+        <v>29502</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>48569</v>
+        <v>48698</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03522850660071654</v>
+        <v>0.03522850660071655</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02708240540390833</v>
+        <v>0.02751301292009807</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04529555552551237</v>
+        <v>0.04541551174976455</v>
       </c>
     </row>
     <row r="38">
@@ -12894,19 +12894,19 @@
         <v>3231</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>9095</v>
+        <v>10049</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01362191198238312</v>
+        <v>0.01362191198238313</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.002692925794196414</v>
+        <v>0.002736775439524931</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03833983757091144</v>
+        <v>0.04235951352747598</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>17</v>
@@ -12915,19 +12915,19 @@
         <v>9636</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5718</v>
+        <v>5586</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15549</v>
+        <v>14853</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01153980238833124</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0068469195024501</v>
+        <v>0.006688930343412664</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01862084700686838</v>
+        <v>0.01778723840815723</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>20</v>
@@ -12936,19 +12936,19 @@
         <v>12868</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7672</v>
+        <v>8046</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>20680</v>
+        <v>20834</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01200044200537434</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.00715449075570025</v>
+        <v>0.007503406261901946</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01928568600233894</v>
+        <v>0.01942922091376637</v>
       </c>
     </row>
     <row r="39">
@@ -13040,19 +13040,19 @@
         <v>2114607</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2054328</v>
+        <v>2055096</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2174891</v>
+        <v>2179719</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.6167574856273854</v>
+        <v>0.6167574856273855</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5991761451468096</v>
+        <v>0.5994004154131943</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6343403649989801</v>
+        <v>0.6357484663781928</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3021</v>
@@ -13061,19 +13061,19 @@
         <v>2188590</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2137646</v>
+        <v>2139915</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2237747</v>
+        <v>2238669</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.6059258979499171</v>
+        <v>0.6059258979499172</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5918217750551915</v>
+        <v>0.5924500534663003</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6195353746152121</v>
+        <v>0.6197905980123133</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4976</v>
@@ -13082,19 +13082,19 @@
         <v>4303196</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4222776</v>
+        <v>4226719</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4391050</v>
+        <v>4383555</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.6112006235500138</v>
+        <v>0.6112006235500136</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5997782262623157</v>
+        <v>0.6003382114892749</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6236787511263531</v>
+        <v>0.6226142055818885</v>
       </c>
     </row>
     <row r="41">
@@ -13111,19 +13111,19 @@
         <v>888291</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>831213</v>
+        <v>835283</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>949551</v>
+        <v>945922</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.2590835715889114</v>
+        <v>0.2590835715889115</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2424359800011002</v>
+        <v>0.2436230711998958</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2769511312704411</v>
+        <v>0.275892531341448</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1453</v>
@@ -13132,19 +13132,19 @@
         <v>942950</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>897136</v>
+        <v>900091</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>989274</v>
+        <v>988364</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2610621194930938</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2483780685576261</v>
+        <v>0.249196243066328</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2738873233502159</v>
+        <v>0.2736352678141228</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2347</v>
@@ -13153,19 +13153,19 @@
         <v>1831241</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1759590</v>
+        <v>1758619</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1905892</v>
+        <v>1905776</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.260098613717951</v>
+        <v>0.2600986137179509</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2499217080791897</v>
+        <v>0.2497838396397606</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2707016909683889</v>
+        <v>0.2706851808900492</v>
       </c>
     </row>
     <row r="42">
@@ -13182,19 +13182,19 @@
         <v>287144</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>255890</v>
+        <v>254233</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>322093</v>
+        <v>323090</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.08375001315010026</v>
+        <v>0.08375001315010028</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07463435203417992</v>
+        <v>0.07415082263812253</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09394345941643654</v>
+        <v>0.09423404878458956</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>472</v>
@@ -13203,19 +13203,19 @@
         <v>311017</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>281207</v>
+        <v>283212</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>341376</v>
+        <v>343009</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.08610723761602808</v>
+        <v>0.08610723761602809</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07785415958995104</v>
+        <v>0.07840927550761256</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09451224558207547</v>
+        <v>0.09496426088431434</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>759</v>
@@ -13224,19 +13224,19 @@
         <v>598161</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>552592</v>
+        <v>553337</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>644222</v>
+        <v>644549</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.08495932536107148</v>
+        <v>0.08495932536107147</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07848695864683398</v>
+        <v>0.07859267189488513</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09150145832060147</v>
+        <v>0.09154796254104038</v>
       </c>
     </row>
     <row r="43">
@@ -13253,19 +13253,19 @@
         <v>98738</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>79976</v>
+        <v>78590</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>122967</v>
+        <v>123860</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02879852729596609</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02332634666540461</v>
+        <v>0.02292203449681054</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0358652891144925</v>
+        <v>0.03612570801604493</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>188</v>
@@ -13274,19 +13274,19 @@
         <v>118399</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>102238</v>
+        <v>101621</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>137369</v>
+        <v>136506</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.03277949250986281</v>
+        <v>0.03277949250986282</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02830516888523995</v>
+        <v>0.02813448080446575</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03803151778748084</v>
+        <v>0.03779256827481388</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>294</v>
@@ -13295,19 +13295,19 @@
         <v>217137</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>190421</v>
+        <v>192985</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>246640</v>
+        <v>244295</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.03084085712674952</v>
+        <v>0.03084085712674951</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02704628433632933</v>
+        <v>0.02741039847415672</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03503129399272525</v>
+        <v>0.03469819810847956</v>
       </c>
     </row>
     <row r="44">
@@ -13324,19 +13324,19 @@
         <v>39807</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>28829</v>
+        <v>28618</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>53360</v>
+        <v>54041</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01161040233763672</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.008408474216879756</v>
+        <v>0.008346764473904951</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01556338992110508</v>
+        <v>0.01576187453053178</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>76</v>
@@ -13345,19 +13345,19 @@
         <v>51020</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>40031</v>
+        <v>39885</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>66117</v>
+        <v>67750</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01412525243109791</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01108275022931094</v>
+        <v>0.01104255411838476</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01830494719784355</v>
+        <v>0.01875691054907665</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>119</v>
@@ -13366,19 +13366,19 @@
         <v>90827</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>75838</v>
+        <v>74555</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>110692</v>
+        <v>110094</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01290058024421451</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01077160748048726</v>
+        <v>0.01058936228856719</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01572198186785696</v>
+        <v>0.0156371173288827</v>
       </c>
     </row>
     <row r="45">
